--- a/scrap_CBT/files/Calculos.xlsx
+++ b/scrap_CBT/files/Calculos.xlsx
@@ -2,28 +2,35 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -37,12 +44,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -55,16 +77,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -147,44 +184,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -211,14 +248,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -245,6 +283,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -256,166 +295,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -425,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,50 +449,1563 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Fecha</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>CBA_Adulto</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>CBT_Adulto</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>CBA_Hogar</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>CBT_Hogar</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>CBA_NEA_Adulto</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>CBT_NEA_Adulto</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>CBA_NEA_Hogar</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>CBT_NEA_Hogar</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="n">
+        <v>42461</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>1514.53</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>3663.66</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>4679.91</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>11320.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="n">
+        <v>42491</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1561.35</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3830.77</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4824.56</v>
+      </c>
+      <c r="E3" t="n">
+        <v>11837.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="n">
+        <v>42522</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1614.32</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3942.67</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4988.25</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12182.84</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1666.48</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4033.76</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5149.41</v>
+      </c>
+      <c r="E5" t="n">
+        <v>12464.33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="n">
+        <v>42583</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1675.05</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4041.87</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5175.92</v>
+      </c>
+      <c r="E6" t="n">
+        <v>12489.37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="n">
+        <v>42614</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1711.22</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4089.82</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5287.67</v>
+      </c>
+      <c r="E7" t="n">
+        <v>12637.53</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="n">
+        <v>42644</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1739.34</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4191.81</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5374.56</v>
+      </c>
+      <c r="E8" t="n">
+        <v>12952.69</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="n">
+        <v>42675</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1762.65</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4247.99</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5446.59</v>
+      </c>
+      <c r="E9" t="n">
+        <v>13126.29</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="n">
+        <v>42705</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1766.62</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4257.55</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5458.86</v>
+      </c>
+      <c r="E10" t="n">
+        <v>13155.83</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="n">
+        <v>42736</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1789.15</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4311.85</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5528.47</v>
+      </c>
+      <c r="E11" t="n">
+        <v>13323.62</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="n">
+        <v>42767</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1821.02</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4425.08</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5626.95</v>
+      </c>
+      <c r="E12" t="n">
+        <v>13673.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="n">
+        <v>42795</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1876.56</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4560.04</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5798.57</v>
+      </c>
+      <c r="E13" t="n">
+        <v>14090.52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="n">
+        <v>42826</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1915.47</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4692.9</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5918.8</v>
+      </c>
+      <c r="E14" t="n">
+        <v>14501.06</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="n">
+        <v>42856</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1937.24</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4746.24</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5986.07</v>
+      </c>
+      <c r="E15" t="n">
+        <v>14665.88</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="n">
+        <v>42887</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1956.42</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4793.23</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6045.34</v>
+      </c>
+      <c r="E16" t="n">
+        <v>14811.08</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="8" t="n">
+        <v>42917</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1984.64</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4862.37</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6132.54</v>
+      </c>
+      <c r="E17" t="n">
+        <v>15024.72</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="n">
+        <v>42948</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2021.98</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4933.63</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6247.92</v>
+      </c>
+      <c r="E18" t="n">
+        <v>15244.92</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="n">
+        <v>42979</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2049.39</v>
+      </c>
+      <c r="C19" t="n">
+        <v>5000.51</v>
+      </c>
+      <c r="D19" t="n">
+        <v>6332.62</v>
+      </c>
+      <c r="E19" t="n">
+        <v>15451.58</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="n">
+        <v>43009</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2079.23</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5073.32</v>
+      </c>
+      <c r="D20" t="n">
+        <v>6424.82</v>
+      </c>
+      <c r="E20" t="n">
+        <v>15676.56</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="n">
+        <v>43040</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2125.84</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5187.05</v>
+      </c>
+      <c r="D21" t="n">
+        <v>6568.85</v>
+      </c>
+      <c r="E21" t="n">
+        <v>16027.98</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="8" t="n">
+        <v>43070</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2150.29</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5397.23</v>
+      </c>
+      <c r="D22" t="n">
+        <v>6644.4</v>
+      </c>
+      <c r="E22" t="n">
+        <v>16677.44</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="n">
+        <v>43101</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2197.26</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5493.15</v>
+      </c>
+      <c r="D23" t="n">
+        <v>6789.53</v>
+      </c>
+      <c r="E23" t="n">
+        <v>16973.83</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="n">
+        <v>43132</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2261.23</v>
+      </c>
+      <c r="C24" t="n">
+        <v>5675.69</v>
+      </c>
+      <c r="D24" t="n">
+        <v>6987.2</v>
+      </c>
+      <c r="E24" t="n">
+        <v>17537.88</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="n">
+        <v>43160</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2294.56</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5782.29</v>
+      </c>
+      <c r="D25" t="n">
+        <v>7090.19</v>
+      </c>
+      <c r="E25" t="n">
+        <v>17867.28</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="8" t="n">
+        <v>43191</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2308.11</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5908.76</v>
+      </c>
+      <c r="D26" t="n">
+        <v>7132.06</v>
+      </c>
+      <c r="E26" t="n">
+        <v>18258.07</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="8" t="n">
+        <v>43221</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2418.65</v>
+      </c>
+      <c r="C27" t="n">
+        <v>6095</v>
+      </c>
+      <c r="D27" t="n">
+        <v>7473.63</v>
+      </c>
+      <c r="E27" t="n">
+        <v>18833.55</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="n">
+        <v>43252</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2537.45</v>
+      </c>
+      <c r="C28" t="n">
+        <v>6343.62</v>
+      </c>
+      <c r="D28" t="n">
+        <v>7840.72</v>
+      </c>
+      <c r="E28" t="n">
+        <v>19601.79</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="n">
+        <v>43282</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2627.37</v>
+      </c>
+      <c r="C29" t="n">
+        <v>6515.88</v>
+      </c>
+      <c r="D29" t="n">
+        <v>8118.57</v>
+      </c>
+      <c r="E29" t="n">
+        <v>20134.07</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="n">
+        <v>43313</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2701.48</v>
+      </c>
+      <c r="C30" t="n">
+        <v>6753.7</v>
+      </c>
+      <c r="D30" t="n">
+        <v>8347.57</v>
+      </c>
+      <c r="E30" t="n">
+        <v>20868.93</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="8" t="n">
+        <v>43344</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2931.88</v>
+      </c>
+      <c r="C31" t="n">
+        <v>7300.38</v>
+      </c>
+      <c r="D31" t="n">
+        <v>9059.51</v>
+      </c>
+      <c r="E31" t="n">
+        <v>22558.17</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="n">
+        <v>43374</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3150.62</v>
+      </c>
+      <c r="C32" t="n">
+        <v>7845.04</v>
+      </c>
+      <c r="D32" t="n">
+        <v>9735.42</v>
+      </c>
+      <c r="E32" t="n">
+        <v>24241.17</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="8" t="n">
+        <v>43405</v>
+      </c>
+      <c r="B33" t="n">
+        <v>3276.02</v>
+      </c>
+      <c r="C33" t="n">
+        <v>8157.29</v>
+      </c>
+      <c r="D33" t="n">
+        <v>10122.9</v>
+      </c>
+      <c r="E33" t="n">
+        <v>25206.03</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="8" t="n">
+        <v>43435</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3300.17</v>
+      </c>
+      <c r="C34" t="n">
+        <v>8250.42</v>
+      </c>
+      <c r="D34" t="n">
+        <v>10197.53</v>
+      </c>
+      <c r="E34" t="n">
+        <v>25493.8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="8" t="n">
+        <v>43466</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3423.03</v>
+      </c>
+      <c r="C35" t="n">
+        <v>8557.58</v>
+      </c>
+      <c r="D35" t="n">
+        <v>10577.16</v>
+      </c>
+      <c r="E35" t="n">
+        <v>26442.92</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="8" t="n">
+        <v>43497</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3597.77</v>
+      </c>
+      <c r="C36" t="n">
+        <v>8922.469999999999</v>
+      </c>
+      <c r="D36" t="n">
+        <v>11117.11</v>
+      </c>
+      <c r="E36" t="n">
+        <v>27570.43</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="8" t="n">
+        <v>43525</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3767.01</v>
+      </c>
+      <c r="C37" t="n">
+        <v>9304.51</v>
+      </c>
+      <c r="D37" t="n">
+        <v>11640.06</v>
+      </c>
+      <c r="E37" t="n">
+        <v>28750.94</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="8" t="n">
+        <v>43556</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3833.28</v>
+      </c>
+      <c r="C38" t="n">
+        <v>9544.870000000001</v>
+      </c>
+      <c r="D38" t="n">
+        <v>11844.84</v>
+      </c>
+      <c r="E38" t="n">
+        <v>29493.65</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="8" t="n">
+        <v>43586</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3911.58</v>
+      </c>
+      <c r="C39" t="n">
+        <v>9818.07</v>
+      </c>
+      <c r="D39" t="n">
+        <v>12086.78</v>
+      </c>
+      <c r="E39" t="n">
+        <v>30337.84</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="8" t="n">
+        <v>43617</v>
+      </c>
+      <c r="B40" t="n">
+        <v>4016.09</v>
+      </c>
+      <c r="C40" t="n">
+        <v>10080.39</v>
+      </c>
+      <c r="D40" t="n">
+        <v>12409.72</v>
+      </c>
+      <c r="E40" t="n">
+        <v>31148.41</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="8" t="n">
+        <v>43647</v>
+      </c>
+      <c r="B41" t="n">
+        <v>4133.91</v>
+      </c>
+      <c r="C41" t="n">
+        <v>10334.77</v>
+      </c>
+      <c r="D41" t="n">
+        <v>12773.78</v>
+      </c>
+      <c r="E41" t="n">
+        <v>31934.44</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="8" t="n">
+        <v>43678</v>
+      </c>
+      <c r="B42" t="n">
+        <v>4290.72</v>
+      </c>
+      <c r="C42" t="n">
+        <v>10683.89</v>
+      </c>
+      <c r="D42" t="n">
+        <v>13258.32</v>
+      </c>
+      <c r="E42" t="n">
+        <v>33013.22</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="8" t="n">
+        <v>43709</v>
+      </c>
+      <c r="B43" t="n">
+        <v>4502.88</v>
+      </c>
+      <c r="C43" t="n">
+        <v>11257.2</v>
+      </c>
+      <c r="D43" t="n">
+        <v>13913.9</v>
+      </c>
+      <c r="E43" t="n">
+        <v>34784.75</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="8" t="n">
+        <v>43739</v>
+      </c>
+      <c r="B44" t="n">
+        <v>4596.2</v>
+      </c>
+      <c r="C44" t="n">
+        <v>11536.46</v>
+      </c>
+      <c r="D44" t="n">
+        <v>14202.26</v>
+      </c>
+      <c r="E44" t="n">
+        <v>35647.66</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="8" t="n">
+        <v>43770</v>
+      </c>
+      <c r="B45" t="n">
+        <v>4886.34</v>
+      </c>
+      <c r="C45" t="n">
+        <v>12166.99</v>
+      </c>
+      <c r="D45" t="n">
+        <v>15098.79</v>
+      </c>
+      <c r="E45" t="n">
+        <v>37596</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="8" t="n">
+        <v>43800</v>
+      </c>
+      <c r="B46" t="n">
+        <v>5043.41</v>
+      </c>
+      <c r="C46" t="n">
+        <v>12608.52</v>
+      </c>
+      <c r="D46" t="n">
+        <v>15584.14</v>
+      </c>
+      <c r="E46" t="n">
+        <v>38960.33</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="8" t="n">
+        <v>43831</v>
+      </c>
+      <c r="B47" t="n">
+        <v>5332.94</v>
+      </c>
+      <c r="C47" t="n">
+        <v>13065.7</v>
+      </c>
+      <c r="D47" t="n">
+        <v>16478.78</v>
+      </c>
+      <c r="E47" t="n">
+        <v>40373.01</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="8" t="n">
+        <v>43862</v>
+      </c>
+      <c r="B48" t="n">
+        <v>5432.32</v>
+      </c>
+      <c r="C48" t="n">
+        <v>13200.54</v>
+      </c>
+      <c r="D48" t="n">
+        <v>16785.87</v>
+      </c>
+      <c r="E48" t="n">
+        <v>40789.67</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="8" t="n">
+        <v>43891</v>
+      </c>
+      <c r="B49" t="n">
+        <v>5615.94</v>
+      </c>
+      <c r="C49" t="n">
+        <v>13590.57</v>
+      </c>
+      <c r="D49" t="n">
+        <v>17353.25</v>
+      </c>
+      <c r="E49" t="n">
+        <v>41994.86</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="8" t="n">
+        <v>43922</v>
+      </c>
+      <c r="B50" t="n">
+        <v>5791.79</v>
+      </c>
+      <c r="C50" t="n">
+        <v>13784.46</v>
+      </c>
+      <c r="D50" t="n">
+        <v>17896.63</v>
+      </c>
+      <c r="E50" t="n">
+        <v>42593.98</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="8" t="n">
+        <v>43952</v>
+      </c>
+      <c r="B51" t="n">
+        <v>5785.01</v>
+      </c>
+      <c r="C51" t="n">
+        <v>13941.87</v>
+      </c>
+      <c r="D51" t="n">
+        <v>17875.68</v>
+      </c>
+      <c r="E51" t="n">
+        <v>43080.38</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="8" t="n">
+        <v>43983</v>
+      </c>
+      <c r="B52" t="n">
+        <v>5834.66</v>
+      </c>
+      <c r="C52" t="n">
+        <v>14178.22</v>
+      </c>
+      <c r="D52" t="n">
+        <v>18029.1</v>
+      </c>
+      <c r="E52" t="n">
+        <v>43810.7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="8" t="n">
+        <v>44013</v>
+      </c>
+      <c r="B53" t="n">
+        <v>5929.29</v>
+      </c>
+      <c r="C53" t="n">
+        <v>14408.17</v>
+      </c>
+      <c r="D53" t="n">
+        <v>18321.51</v>
+      </c>
+      <c r="E53" t="n">
+        <v>44521.25</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="8" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B54" t="n">
+        <v>6081.69</v>
+      </c>
+      <c r="C54" t="n">
+        <v>14717.69</v>
+      </c>
+      <c r="D54" t="n">
+        <v>18792.42</v>
+      </c>
+      <c r="E54" t="n">
+        <v>45477.66</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="8" t="n">
+        <v>44075</v>
+      </c>
+      <c r="B55" t="n">
+        <v>6288.17</v>
+      </c>
+      <c r="C55" t="n">
+        <v>15280.25</v>
+      </c>
+      <c r="D55" t="n">
+        <v>19430.45</v>
+      </c>
+      <c r="E55" t="n">
+        <v>47215.97</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="8" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B56" t="n">
+        <v>6702.33</v>
+      </c>
+      <c r="C56" t="n">
+        <v>16152.62</v>
+      </c>
+      <c r="D56" t="n">
+        <v>20710.2</v>
+      </c>
+      <c r="E56" t="n">
+        <v>49911.6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="8" t="n">
+        <v>44136</v>
+      </c>
+      <c r="B57" t="n">
+        <v>6981.61</v>
+      </c>
+      <c r="C57" t="n">
+        <v>16755.86</v>
+      </c>
+      <c r="D57" t="n">
+        <v>21573.1749</v>
+      </c>
+      <c r="E57" t="n">
+        <v>51775.6074</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="8" t="n">
+        <v>44166</v>
+      </c>
+      <c r="B58" t="n">
+        <v>7340.12</v>
+      </c>
+      <c r="C58" t="n">
+        <v>17542.89</v>
+      </c>
+      <c r="D58" t="n">
+        <v>22680.9708</v>
+      </c>
+      <c r="E58" t="n">
+        <v>54207.5301</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="8" t="n">
+        <v>44197</v>
+      </c>
+      <c r="B59" t="n">
+        <v>7677.09</v>
+      </c>
+      <c r="C59" t="n">
+        <v>18271.47</v>
+      </c>
+      <c r="D59" t="n">
+        <v>23722.2081</v>
+      </c>
+      <c r="E59" t="n">
+        <v>56458.8423</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="8" t="n">
+        <v>44228</v>
+      </c>
+      <c r="B60" t="n">
+        <v>7953.14</v>
+      </c>
+      <c r="C60" t="n">
+        <v>18769.41</v>
+      </c>
+      <c r="D60" t="n">
+        <v>24575.2</v>
+      </c>
+      <c r="E60" t="n">
+        <v>57997.48</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="8" t="n">
+        <v>44256</v>
+      </c>
+      <c r="B61" t="n">
+        <v>8312.33</v>
+      </c>
+      <c r="C61" t="n">
+        <v>19700.22</v>
+      </c>
+      <c r="D61" t="n">
+        <v>25685.0997</v>
+      </c>
+      <c r="E61" t="n">
+        <v>60873.6798</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="8" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B62" t="n">
+        <v>8633.309999999999</v>
+      </c>
+      <c r="C62" t="n">
+        <v>20374.61</v>
+      </c>
+      <c r="D62" t="n">
+        <v>26676.9279</v>
+      </c>
+      <c r="E62" t="n">
+        <v>62957.5449</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="8" t="n">
+        <v>44317</v>
+      </c>
+      <c r="B63" t="n">
+        <v>8874.889999999999</v>
+      </c>
+      <c r="C63" t="n">
+        <v>20855.99</v>
+      </c>
+      <c r="D63" t="n">
+        <v>27423.41</v>
+      </c>
+      <c r="E63" t="n">
+        <v>64445.0091</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="8" t="n">
+        <v>44348</v>
+      </c>
+      <c r="B64" t="n">
+        <v>9195.41</v>
+      </c>
+      <c r="C64" t="n">
+        <v>21517.26</v>
+      </c>
+      <c r="D64" t="n">
+        <v>28413.8169</v>
+      </c>
+      <c r="E64" t="n">
+        <v>66488.33339999999</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="8" t="n">
+        <v>44378</v>
+      </c>
+      <c r="B65" t="n">
+        <v>9386.040000000001</v>
+      </c>
+      <c r="C65" t="n">
+        <v>21869.47</v>
+      </c>
+      <c r="D65" t="n">
+        <v>29002.8636</v>
+      </c>
+      <c r="E65" t="n">
+        <v>67576.6623</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="8" t="n">
+        <v>44409</v>
+      </c>
+      <c r="B66" t="n">
+        <v>9454.129999999999</v>
+      </c>
+      <c r="C66" t="n">
+        <v>22122.66</v>
+      </c>
+      <c r="D66" t="n">
+        <v>29213.2617</v>
+      </c>
+      <c r="E66" t="n">
+        <v>68359.01939999999</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="8" t="n">
+        <v>44440</v>
+      </c>
+      <c r="B67" t="n">
+        <v>9713.209999999999</v>
+      </c>
+      <c r="C67" t="n">
+        <v>22826.04</v>
+      </c>
+      <c r="D67" t="n">
+        <v>30013.81889999999</v>
+      </c>
+      <c r="E67" t="n">
+        <v>70532.4636</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="8" t="n">
+        <v>44470</v>
+      </c>
+      <c r="B68" t="n">
+        <v>10008.2</v>
+      </c>
+      <c r="C68" t="n">
+        <v>23419.19</v>
+      </c>
+      <c r="D68" t="n">
+        <v>30925.338</v>
+      </c>
+      <c r="E68" t="n">
+        <v>72365.2971</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="8" t="n">
+        <v>44501</v>
+      </c>
+      <c r="B69" t="n">
+        <v>10266.79</v>
+      </c>
+      <c r="C69" t="n">
+        <v>23921.62</v>
+      </c>
+      <c r="D69" t="n">
+        <v>31724.3811</v>
+      </c>
+      <c r="E69" t="n">
+        <v>73917.80579999999</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="8" t="n">
+        <v>44531</v>
+      </c>
+      <c r="B70" t="n">
+        <v>10667.86</v>
+      </c>
+      <c r="C70" t="n">
+        <v>24642.76</v>
+      </c>
+      <c r="D70" t="n">
+        <v>32963.6874</v>
+      </c>
+      <c r="E70" t="n">
+        <v>76146.12839999999</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="8" t="n">
+        <v>44562</v>
+      </c>
+      <c r="B71" t="n">
+        <v>11111.27</v>
+      </c>
+      <c r="C71" t="n">
+        <v>25444.81</v>
+      </c>
+      <c r="D71" t="n">
+        <v>34333.8243</v>
+      </c>
+      <c r="E71" t="n">
+        <v>78624.4629</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="8" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B72" t="n">
+        <v>12108.08</v>
+      </c>
+      <c r="C72" t="n">
+        <v>27122.1</v>
+      </c>
+      <c r="D72" t="n">
+        <v>37413.97</v>
+      </c>
+      <c r="E72" t="n">
+        <v>83807.28999999999</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="8" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B73" t="n">
+        <v>12900.45</v>
+      </c>
+      <c r="C73" t="n">
+        <v>29026.01</v>
+      </c>
+      <c r="D73" t="n">
+        <v>39862.39</v>
+      </c>
+      <c r="E73" t="n">
+        <v>89690.37</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="8" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B74" t="n">
+        <v>13762.77</v>
+      </c>
+      <c r="C74" t="n">
+        <v>30828.6</v>
+      </c>
+      <c r="D74" t="n">
+        <v>42526.9593</v>
+      </c>
+      <c r="E74" t="n">
+        <v>95260.374</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="8" t="n">
+        <v>44682</v>
+      </c>
+      <c r="B75" t="n">
+        <v>14400.84</v>
+      </c>
+      <c r="C75" t="n">
+        <v>32257.88</v>
+      </c>
+      <c r="D75" t="n">
+        <v>44498.5956</v>
+      </c>
+      <c r="E75" t="n">
+        <v>99676.8492</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="8" t="n">
+        <v>44713</v>
+      </c>
+      <c r="B76" t="n">
+        <v>15056.75</v>
+      </c>
+      <c r="C76" t="n">
+        <v>33727.12</v>
+      </c>
+      <c r="D76" t="n">
+        <v>46525.3575</v>
+      </c>
+      <c r="E76" t="n">
+        <v>104216.8008</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="8" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B77" t="n">
+        <v>16008.28</v>
+      </c>
+      <c r="C77" t="n">
+        <v>36018.63</v>
+      </c>
+      <c r="D77" t="n">
+        <v>49465.5852</v>
+      </c>
+      <c r="E77" t="n">
+        <v>111297.5667</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="8" t="n">
+        <v>44774</v>
+      </c>
+      <c r="B78" t="n">
+        <v>17148.8</v>
+      </c>
+      <c r="C78" t="n">
+        <v>38756.29</v>
+      </c>
+      <c r="D78" t="n">
+        <v>52989.79199999999</v>
+      </c>
+      <c r="E78" t="n">
+        <v>119756.9361</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="8" t="n">
+        <v>44805</v>
+      </c>
+      <c r="B79" t="n">
+        <v>18359.84</v>
+      </c>
+      <c r="C79" t="n">
+        <v>41493.24</v>
+      </c>
+      <c r="D79" t="n">
+        <v>56731.9056</v>
+      </c>
+      <c r="E79" t="n">
+        <v>128214.1116</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="8" t="n">
+        <v>44835</v>
+      </c>
+      <c r="B80" t="n">
+        <v>20098.92</v>
+      </c>
+      <c r="C80" t="n">
+        <v>45222.57</v>
+      </c>
+      <c r="D80" t="n">
+        <v>62105.66279999999</v>
+      </c>
+      <c r="E80" t="n">
+        <v>139737.7413</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="8" t="n">
+        <v>44866</v>
+      </c>
+      <c r="B81" t="n">
+        <v>20715.93</v>
+      </c>
+      <c r="C81" t="n">
+        <v>47232.32</v>
+      </c>
+      <c r="D81" t="n">
+        <v>64012.2237</v>
+      </c>
+      <c r="E81" t="n">
+        <v>145947.8688</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="8" t="n">
+        <v>44896</v>
+      </c>
+      <c r="B82" t="n">
+        <v>21743.48</v>
+      </c>
+      <c r="C82" t="n">
+        <v>49357.7</v>
+      </c>
+      <c r="D82" t="n">
+        <v>67187.3532</v>
+      </c>
+      <c r="E82" t="n">
+        <v>152515.293</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="8" t="n">
+        <v>44927</v>
+      </c>
+      <c r="B83" t="n">
+        <v>23315.04</v>
+      </c>
+      <c r="C83" t="n">
+        <v>52925.14</v>
+      </c>
+      <c r="D83" t="n">
+        <v>72043.4736</v>
+      </c>
+      <c r="E83" t="n">
+        <v>163538.6826</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="8" t="n">
+        <v>44958</v>
+      </c>
+      <c r="B84" t="n">
+        <v>26046.32</v>
+      </c>
+      <c r="C84" t="n">
+        <v>57301.9</v>
+      </c>
+      <c r="D84" t="n">
+        <v>80483.12879999999</v>
+      </c>
+      <c r="E84" t="n">
+        <v>177062.871</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="8" t="n">
+        <v>44986</v>
+      </c>
+      <c r="B85" t="n">
+        <v>28388.12</v>
+      </c>
+      <c r="C85" t="n">
+        <v>61886.1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>87719.29079999999</v>
+      </c>
+      <c r="E85" t="n">
+        <v>191228.049</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="8" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B86" t="n">
+        <v>30468.76</v>
+      </c>
+      <c r="C86" t="n">
+        <v>65812.52</v>
+      </c>
+      <c r="D86" t="n">
+        <v>94148.4684</v>
+      </c>
+      <c r="E86" t="n">
+        <v>203360.6868</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="8" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B87" t="n">
+        <v>32055.87</v>
+      </c>
+      <c r="C87" t="n">
+        <v>70522.91</v>
+      </c>
+      <c r="D87" t="n">
+        <v>99052.63829999999</v>
+      </c>
+      <c r="E87" t="n">
+        <v>217915.7919</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="8" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B88" t="n">
+        <v>33730.51</v>
+      </c>
+      <c r="C88" t="n">
+        <v>75219.03999999999</v>
+      </c>
+      <c r="D88" t="n">
+        <v>104227.2759</v>
+      </c>
+      <c r="E88" t="n">
+        <v>232426.8336</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="8" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B89" t="n">
+        <v>36130.15</v>
+      </c>
+      <c r="C89" t="n">
+        <v>80570.23</v>
+      </c>
+      <c r="D89" t="n">
+        <v>111642.1635</v>
+      </c>
+      <c r="E89" t="n">
+        <v>248962.0107</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="8" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B90" t="n">
+        <v>42262.25</v>
+      </c>
+      <c r="C90" t="n">
+        <v>92131.7</v>
+      </c>
+      <c r="D90" t="n">
+        <v>130590.3525</v>
+      </c>
+      <c r="E90" t="n">
+        <v>284686.953</v>
       </c>
     </row>
   </sheetData>

--- a/scrap_CBT/files/Calculos.xlsx
+++ b/scrap_CBT/files/Calculos.xlsx
@@ -19,13 +19,18 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -44,12 +49,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -77,23 +97,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -442,11 +461,18 @@
   </sheetPr>
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col width="18.140625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="11.5703125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="11.28515625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="12" bestFit="1" customWidth="1" min="4" max="5"/>
+    <col width="11" bestFit="1" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="inlineStr">
@@ -474,29 +500,13 @@
           <t>CBT_Hogar</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
-        <is>
-          <t>CBA_NEA_Adulto</t>
-        </is>
-      </c>
-      <c r="G1" s="5" t="inlineStr">
-        <is>
-          <t>CBT_NEA_Adulto</t>
-        </is>
-      </c>
-      <c r="H1" s="5" t="inlineStr">
-        <is>
-          <t>CBA_NEA_Hogar</t>
-        </is>
-      </c>
-      <c r="I1" s="5" t="inlineStr">
-        <is>
-          <t>CBT_NEA_Hogar</t>
-        </is>
-      </c>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="n"/>
+      <c r="I1" s="1" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="n">
+      <c r="A2" s="6" t="n">
         <v>42461</v>
       </c>
       <c r="B2" s="5" t="n">
@@ -513,7 +523,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="n">
+      <c r="A3" s="7" t="n">
         <v>42491</v>
       </c>
       <c r="B3" t="n">
@@ -530,7 +540,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="n">
+      <c r="A4" s="7" t="n">
         <v>42522</v>
       </c>
       <c r="B4" t="n">
@@ -547,7 +557,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="n">
+      <c r="A5" s="7" t="n">
         <v>42552</v>
       </c>
       <c r="B5" t="n">
@@ -564,7 +574,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="n">
+      <c r="A6" s="7" t="n">
         <v>42583</v>
       </c>
       <c r="B6" t="n">
@@ -581,7 +591,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="n">
+      <c r="A7" s="7" t="n">
         <v>42614</v>
       </c>
       <c r="B7" t="n">
@@ -598,7 +608,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="n">
+      <c r="A8" s="7" t="n">
         <v>42644</v>
       </c>
       <c r="B8" t="n">
@@ -615,7 +625,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="n">
+      <c r="A9" s="7" t="n">
         <v>42675</v>
       </c>
       <c r="B9" t="n">
@@ -632,7 +642,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="n">
+      <c r="A10" s="7" t="n">
         <v>42705</v>
       </c>
       <c r="B10" t="n">
@@ -649,7 +659,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="n">
+      <c r="A11" s="7" t="n">
         <v>42736</v>
       </c>
       <c r="B11" t="n">
@@ -666,7 +676,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="8" t="n">
+      <c r="A12" s="7" t="n">
         <v>42767</v>
       </c>
       <c r="B12" t="n">
@@ -683,7 +693,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="n">
+      <c r="A13" s="7" t="n">
         <v>42795</v>
       </c>
       <c r="B13" t="n">
@@ -700,7 +710,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="n">
+      <c r="A14" s="7" t="n">
         <v>42826</v>
       </c>
       <c r="B14" t="n">
@@ -717,7 +727,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="n">
+      <c r="A15" s="7" t="n">
         <v>42856</v>
       </c>
       <c r="B15" t="n">
@@ -734,7 +744,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="n">
+      <c r="A16" s="7" t="n">
         <v>42887</v>
       </c>
       <c r="B16" t="n">
@@ -751,7 +761,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="8" t="n">
+      <c r="A17" s="7" t="n">
         <v>42917</v>
       </c>
       <c r="B17" t="n">
@@ -768,7 +778,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="n">
+      <c r="A18" s="7" t="n">
         <v>42948</v>
       </c>
       <c r="B18" t="n">
@@ -785,7 +795,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="8" t="n">
+      <c r="A19" s="7" t="n">
         <v>42979</v>
       </c>
       <c r="B19" t="n">
@@ -802,7 +812,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="8" t="n">
+      <c r="A20" s="7" t="n">
         <v>43009</v>
       </c>
       <c r="B20" t="n">
@@ -819,7 +829,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="8" t="n">
+      <c r="A21" s="7" t="n">
         <v>43040</v>
       </c>
       <c r="B21" t="n">
@@ -836,7 +846,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="8" t="n">
+      <c r="A22" s="7" t="n">
         <v>43070</v>
       </c>
       <c r="B22" t="n">
@@ -853,7 +863,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="n">
+      <c r="A23" s="7" t="n">
         <v>43101</v>
       </c>
       <c r="B23" t="n">
@@ -870,7 +880,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="8" t="n">
+      <c r="A24" s="7" t="n">
         <v>43132</v>
       </c>
       <c r="B24" t="n">
@@ -887,7 +897,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="8" t="n">
+      <c r="A25" s="7" t="n">
         <v>43160</v>
       </c>
       <c r="B25" t="n">
@@ -904,7 +914,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="8" t="n">
+      <c r="A26" s="7" t="n">
         <v>43191</v>
       </c>
       <c r="B26" t="n">
@@ -921,7 +931,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="8" t="n">
+      <c r="A27" s="7" t="n">
         <v>43221</v>
       </c>
       <c r="B27" t="n">
@@ -938,7 +948,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="8" t="n">
+      <c r="A28" s="7" t="n">
         <v>43252</v>
       </c>
       <c r="B28" t="n">
@@ -955,7 +965,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="8" t="n">
+      <c r="A29" s="7" t="n">
         <v>43282</v>
       </c>
       <c r="B29" t="n">
@@ -972,7 +982,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="8" t="n">
+      <c r="A30" s="7" t="n">
         <v>43313</v>
       </c>
       <c r="B30" t="n">
@@ -989,7 +999,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="8" t="n">
+      <c r="A31" s="7" t="n">
         <v>43344</v>
       </c>
       <c r="B31" t="n">
@@ -1006,7 +1016,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="8" t="n">
+      <c r="A32" s="7" t="n">
         <v>43374</v>
       </c>
       <c r="B32" t="n">
@@ -1023,7 +1033,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="8" t="n">
+      <c r="A33" s="7" t="n">
         <v>43405</v>
       </c>
       <c r="B33" t="n">
@@ -1040,7 +1050,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="8" t="n">
+      <c r="A34" s="7" t="n">
         <v>43435</v>
       </c>
       <c r="B34" t="n">
@@ -1057,7 +1067,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="8" t="n">
+      <c r="A35" s="7" t="n">
         <v>43466</v>
       </c>
       <c r="B35" t="n">
@@ -1074,7 +1084,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="8" t="n">
+      <c r="A36" s="7" t="n">
         <v>43497</v>
       </c>
       <c r="B36" t="n">
@@ -1091,7 +1101,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="8" t="n">
+      <c r="A37" s="7" t="n">
         <v>43525</v>
       </c>
       <c r="B37" t="n">
@@ -1108,7 +1118,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="8" t="n">
+      <c r="A38" s="7" t="n">
         <v>43556</v>
       </c>
       <c r="B38" t="n">
@@ -1125,7 +1135,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="8" t="n">
+      <c r="A39" s="7" t="n">
         <v>43586</v>
       </c>
       <c r="B39" t="n">
@@ -1142,7 +1152,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="8" t="n">
+      <c r="A40" s="7" t="n">
         <v>43617</v>
       </c>
       <c r="B40" t="n">
@@ -1159,7 +1169,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="8" t="n">
+      <c r="A41" s="7" t="n">
         <v>43647</v>
       </c>
       <c r="B41" t="n">
@@ -1176,7 +1186,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="8" t="n">
+      <c r="A42" s="7" t="n">
         <v>43678</v>
       </c>
       <c r="B42" t="n">
@@ -1193,7 +1203,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="8" t="n">
+      <c r="A43" s="7" t="n">
         <v>43709</v>
       </c>
       <c r="B43" t="n">
@@ -1210,7 +1220,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="8" t="n">
+      <c r="A44" s="7" t="n">
         <v>43739</v>
       </c>
       <c r="B44" t="n">
@@ -1227,7 +1237,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="8" t="n">
+      <c r="A45" s="7" t="n">
         <v>43770</v>
       </c>
       <c r="B45" t="n">
@@ -1244,7 +1254,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="8" t="n">
+      <c r="A46" s="7" t="n">
         <v>43800</v>
       </c>
       <c r="B46" t="n">
@@ -1261,7 +1271,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="8" t="n">
+      <c r="A47" s="7" t="n">
         <v>43831</v>
       </c>
       <c r="B47" t="n">
@@ -1278,7 +1288,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="8" t="n">
+      <c r="A48" s="7" t="n">
         <v>43862</v>
       </c>
       <c r="B48" t="n">
@@ -1295,7 +1305,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="8" t="n">
+      <c r="A49" s="7" t="n">
         <v>43891</v>
       </c>
       <c r="B49" t="n">
@@ -1312,7 +1322,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="8" t="n">
+      <c r="A50" s="7" t="n">
         <v>43922</v>
       </c>
       <c r="B50" t="n">
@@ -1329,7 +1339,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="8" t="n">
+      <c r="A51" s="7" t="n">
         <v>43952</v>
       </c>
       <c r="B51" t="n">
@@ -1346,7 +1356,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="8" t="n">
+      <c r="A52" s="7" t="n">
         <v>43983</v>
       </c>
       <c r="B52" t="n">
@@ -1363,7 +1373,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="8" t="n">
+      <c r="A53" s="7" t="n">
         <v>44013</v>
       </c>
       <c r="B53" t="n">
@@ -1380,7 +1390,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="8" t="n">
+      <c r="A54" s="7" t="n">
         <v>44044</v>
       </c>
       <c r="B54" t="n">
@@ -1397,7 +1407,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="8" t="n">
+      <c r="A55" s="7" t="n">
         <v>44075</v>
       </c>
       <c r="B55" t="n">
@@ -1414,7 +1424,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="8" t="n">
+      <c r="A56" s="7" t="n">
         <v>44105</v>
       </c>
       <c r="B56" t="n">
@@ -1431,7 +1441,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="8" t="n">
+      <c r="A57" s="7" t="n">
         <v>44136</v>
       </c>
       <c r="B57" t="n">
@@ -1448,7 +1458,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="8" t="n">
+      <c r="A58" s="7" t="n">
         <v>44166</v>
       </c>
       <c r="B58" t="n">
@@ -1465,7 +1475,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="8" t="n">
+      <c r="A59" s="7" t="n">
         <v>44197</v>
       </c>
       <c r="B59" t="n">
@@ -1482,7 +1492,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="8" t="n">
+      <c r="A60" s="7" t="n">
         <v>44228</v>
       </c>
       <c r="B60" t="n">
@@ -1499,7 +1509,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="8" t="n">
+      <c r="A61" s="7" t="n">
         <v>44256</v>
       </c>
       <c r="B61" t="n">
@@ -1516,7 +1526,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="8" t="n">
+      <c r="A62" s="7" t="n">
         <v>44287</v>
       </c>
       <c r="B62" t="n">
@@ -1533,7 +1543,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="8" t="n">
+      <c r="A63" s="7" t="n">
         <v>44317</v>
       </c>
       <c r="B63" t="n">
@@ -1550,7 +1560,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="8" t="n">
+      <c r="A64" s="7" t="n">
         <v>44348</v>
       </c>
       <c r="B64" t="n">
@@ -1567,7 +1577,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="8" t="n">
+      <c r="A65" s="7" t="n">
         <v>44378</v>
       </c>
       <c r="B65" t="n">
@@ -1584,7 +1594,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="8" t="n">
+      <c r="A66" s="7" t="n">
         <v>44409</v>
       </c>
       <c r="B66" t="n">
@@ -1601,7 +1611,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="8" t="n">
+      <c r="A67" s="7" t="n">
         <v>44440</v>
       </c>
       <c r="B67" t="n">
@@ -1618,7 +1628,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="8" t="n">
+      <c r="A68" s="7" t="n">
         <v>44470</v>
       </c>
       <c r="B68" t="n">
@@ -1635,7 +1645,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="8" t="n">
+      <c r="A69" s="7" t="n">
         <v>44501</v>
       </c>
       <c r="B69" t="n">
@@ -1652,7 +1662,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="8" t="n">
+      <c r="A70" s="7" t="n">
         <v>44531</v>
       </c>
       <c r="B70" t="n">
@@ -1669,7 +1679,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="8" t="n">
+      <c r="A71" s="7" t="n">
         <v>44562</v>
       </c>
       <c r="B71" t="n">
@@ -1686,7 +1696,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="8" t="n">
+      <c r="A72" s="7" t="n">
         <v>44593</v>
       </c>
       <c r="B72" t="n">
@@ -1703,7 +1713,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="8" t="n">
+      <c r="A73" s="7" t="n">
         <v>44621</v>
       </c>
       <c r="B73" t="n">
@@ -1720,7 +1730,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="8" t="n">
+      <c r="A74" s="7" t="n">
         <v>44652</v>
       </c>
       <c r="B74" t="n">
@@ -1737,7 +1747,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="8" t="n">
+      <c r="A75" s="7" t="n">
         <v>44682</v>
       </c>
       <c r="B75" t="n">
@@ -1754,7 +1764,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="8" t="n">
+      <c r="A76" s="7" t="n">
         <v>44713</v>
       </c>
       <c r="B76" t="n">
@@ -1771,7 +1781,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="8" t="n">
+      <c r="A77" s="7" t="n">
         <v>44743</v>
       </c>
       <c r="B77" t="n">
@@ -1788,7 +1798,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="8" t="n">
+      <c r="A78" s="7" t="n">
         <v>44774</v>
       </c>
       <c r="B78" t="n">
@@ -1805,7 +1815,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="8" t="n">
+      <c r="A79" s="7" t="n">
         <v>44805</v>
       </c>
       <c r="B79" t="n">
@@ -1822,7 +1832,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="8" t="n">
+      <c r="A80" s="7" t="n">
         <v>44835</v>
       </c>
       <c r="B80" t="n">
@@ -1839,7 +1849,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="8" t="n">
+      <c r="A81" s="7" t="n">
         <v>44866</v>
       </c>
       <c r="B81" t="n">
@@ -1856,7 +1866,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="8" t="n">
+      <c r="A82" s="7" t="n">
         <v>44896</v>
       </c>
       <c r="B82" t="n">
@@ -1873,7 +1883,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="8" t="n">
+      <c r="A83" s="7" t="n">
         <v>44927</v>
       </c>
       <c r="B83" t="n">
@@ -1890,7 +1900,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="8" t="n">
+      <c r="A84" s="7" t="n">
         <v>44958</v>
       </c>
       <c r="B84" t="n">
@@ -1907,7 +1917,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="8" t="n">
+      <c r="A85" s="7" t="n">
         <v>44986</v>
       </c>
       <c r="B85" t="n">
@@ -1924,7 +1934,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="8" t="n">
+      <c r="A86" s="7" t="n">
         <v>45017</v>
       </c>
       <c r="B86" t="n">
@@ -1941,7 +1951,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="8" t="n">
+      <c r="A87" s="7" t="n">
         <v>45047</v>
       </c>
       <c r="B87" t="n">
@@ -1958,7 +1968,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="8" t="n">
+      <c r="A88" s="7" t="n">
         <v>45078</v>
       </c>
       <c r="B88" t="n">
@@ -1975,7 +1985,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="8" t="n">
+      <c r="A89" s="7" t="n">
         <v>45108</v>
       </c>
       <c r="B89" t="n">
@@ -1992,7 +2002,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="8" t="n">
+      <c r="A90" s="7" t="n">
         <v>45139</v>
       </c>
       <c r="B90" t="n">

--- a/scrap_CBT/files/Calculos.xlsx
+++ b/scrap_CBT/files/Calculos.xlsx
@@ -459,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
@@ -2018,6 +2018,23 @@
         <v>284686.953</v>
       </c>
     </row>
+    <row r="91">
+      <c r="A91" s="7" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B91" t="n">
+        <v>47858.79</v>
+      </c>
+      <c r="C91" t="n">
+        <v>103372.83</v>
+      </c>
+      <c r="D91" t="n">
+        <v>147880.5711</v>
+      </c>
+      <c r="E91" t="n">
+        <v>319422.0447</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/scrap_CBT/files/Calculos.xlsx
+++ b/scrap_CBT/files/Calculos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,18 +19,13 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -49,27 +44,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -97,22 +77,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -459,10 +436,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -470,60 +447,69 @@
     <col width="18.140625" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="11.5703125" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="11.28515625" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="12" bestFit="1" customWidth="1" min="4" max="5"/>
-    <col width="11" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="12" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="5" t="inlineStr">
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Fecha</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>CBA_Adulto</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>CBT_Adulto</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>CBA_Hogar</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>CBT_Hogar</t>
         </is>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="n"/>
-      <c r="I1" s="1" t="n"/>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>cba_nea</t>
+        </is>
+      </c>
+      <c r="G1" s="4" t="inlineStr">
+        <is>
+          <t>cbt_nea</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="n">
+      <c r="A2" s="5" t="n">
         <v>42461</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="4" t="n">
         <v>1514.53</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" s="4" t="n">
         <v>3663.66</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="4" t="n">
         <v>4679.91</v>
       </c>
-      <c r="E2" s="5" t="n">
+      <c r="E2" s="4" t="n">
         <v>11320.71</v>
       </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>3100</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="n">
+      <c r="A3" s="6" t="n">
         <v>42491</v>
       </c>
       <c r="B3" t="n">
@@ -538,9 +524,13 @@
       <c r="E3" t="n">
         <v>11837.08</v>
       </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>3230</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="n">
+      <c r="A4" s="6" t="n">
         <v>42522</v>
       </c>
       <c r="B4" t="n">
@@ -555,9 +545,13 @@
       <c r="E4" t="n">
         <v>12182.84</v>
       </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>3315</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="n">
+      <c r="A5" s="6" t="n">
         <v>42552</v>
       </c>
       <c r="B5" t="n">
@@ -572,9 +566,13 @@
       <c r="E5" t="n">
         <v>12464.33</v>
       </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>3396</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="n">
+      <c r="A6" s="6" t="n">
         <v>42583</v>
       </c>
       <c r="B6" t="n">
@@ -589,9 +587,13 @@
       <c r="E6" t="n">
         <v>12489.37</v>
       </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>3394</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="n">
+      <c r="A7" s="6" t="n">
         <v>42614</v>
       </c>
       <c r="B7" t="n">
@@ -606,9 +608,13 @@
       <c r="E7" t="n">
         <v>12637.53</v>
       </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>3451</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="n">
+      <c r="A8" s="6" t="n">
         <v>42644</v>
       </c>
       <c r="B8" t="n">
@@ -623,9 +629,13 @@
       <c r="E8" t="n">
         <v>12952.69</v>
       </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>3524</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="n">
+      <c r="A9" s="6" t="n">
         <v>42675</v>
       </c>
       <c r="B9" t="n">
@@ -640,9 +650,13 @@
       <c r="E9" t="n">
         <v>13126.29</v>
       </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>3540</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="n">
+      <c r="A10" s="6" t="n">
         <v>42705</v>
       </c>
       <c r="B10" t="n">
@@ -657,9 +671,15 @@
       <c r="E10" t="n">
         <v>13155.83</v>
       </c>
+      <c r="F10" t="n">
+        <v>1502</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3552</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="n">
+      <c r="A11" s="6" t="n">
         <v>42736</v>
       </c>
       <c r="B11" t="n">
@@ -674,9 +694,15 @@
       <c r="E11" t="n">
         <v>13323.62</v>
       </c>
+      <c r="F11" t="n">
+        <v>1521</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3594</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="n">
+      <c r="A12" s="6" t="n">
         <v>42767</v>
       </c>
       <c r="B12" t="n">
@@ -691,9 +717,15 @@
       <c r="E12" t="n">
         <v>13673.5</v>
       </c>
+      <c r="F12" t="n">
+        <v>1548</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3694</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="n">
+      <c r="A13" s="6" t="n">
         <v>42795</v>
       </c>
       <c r="B13" t="n">
@@ -708,9 +740,15 @@
       <c r="E13" t="n">
         <v>14090.52</v>
       </c>
+      <c r="F13" t="n">
+        <v>1595</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3797</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="n">
+      <c r="A14" s="6" t="n">
         <v>42826</v>
       </c>
       <c r="B14" t="n">
@@ -725,9 +763,15 @@
       <c r="E14" t="n">
         <v>14501.06</v>
       </c>
+      <c r="F14" t="n">
+        <v>1628</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3914</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="n">
+      <c r="A15" s="6" t="n">
         <v>42856</v>
       </c>
       <c r="B15" t="n">
@@ -742,9 +786,15 @@
       <c r="E15" t="n">
         <v>14665.88</v>
       </c>
+      <c r="F15" t="n">
+        <v>1647</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3960</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="n">
+      <c r="A16" s="6" t="n">
         <v>42887</v>
       </c>
       <c r="B16" t="n">
@@ -759,9 +809,15 @@
       <c r="E16" t="n">
         <v>14811.08</v>
       </c>
+      <c r="F16" t="n">
+        <v>1663</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4011</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="n">
+      <c r="A17" s="6" t="n">
         <v>42917</v>
       </c>
       <c r="B17" t="n">
@@ -776,9 +832,15 @@
       <c r="E17" t="n">
         <v>15024.72</v>
       </c>
+      <c r="F17" t="n">
+        <v>1687</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4133</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="n">
+      <c r="A18" s="6" t="n">
         <v>42948</v>
       </c>
       <c r="B18" t="n">
@@ -793,9 +855,15 @@
       <c r="E18" t="n">
         <v>15244.92</v>
       </c>
+      <c r="F18" t="n">
+        <v>1719</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4194</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="n">
+      <c r="A19" s="6" t="n">
         <v>42979</v>
       </c>
       <c r="B19" t="n">
@@ -810,9 +878,15 @@
       <c r="E19" t="n">
         <v>15451.58</v>
       </c>
+      <c r="F19" t="n">
+        <v>1742</v>
+      </c>
+      <c r="G19" t="n">
+        <v>4250</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="n">
+      <c r="A20" s="6" t="n">
         <v>43009</v>
       </c>
       <c r="B20" t="n">
@@ -827,9 +901,15 @@
       <c r="E20" t="n">
         <v>15676.56</v>
       </c>
+      <c r="F20" t="n">
+        <v>1767</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4312</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="n">
+      <c r="A21" s="6" t="n">
         <v>43040</v>
       </c>
       <c r="B21" t="n">
@@ -844,9 +924,15 @@
       <c r="E21" t="n">
         <v>16027.98</v>
       </c>
+      <c r="F21" t="n">
+        <v>1807</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4409</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="7" t="n">
+      <c r="A22" s="6" t="n">
         <v>43070</v>
       </c>
       <c r="B22" t="n">
@@ -861,9 +947,15 @@
       <c r="E22" t="n">
         <v>16677.44</v>
       </c>
+      <c r="F22" t="n">
+        <v>1828</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4588</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="n">
+      <c r="A23" s="6" t="n">
         <v>43101</v>
       </c>
       <c r="B23" t="n">
@@ -878,9 +970,15 @@
       <c r="E23" t="n">
         <v>16973.83</v>
       </c>
+      <c r="F23" t="n">
+        <v>1960</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4587</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="7" t="n">
+      <c r="A24" s="6" t="n">
         <v>43132</v>
       </c>
       <c r="B24" t="n">
@@ -895,9 +993,15 @@
       <c r="E24" t="n">
         <v>17537.88</v>
       </c>
+      <c r="F24" t="n">
+        <v>2018</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4743</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="7" t="n">
+      <c r="A25" s="6" t="n">
         <v>43160</v>
       </c>
       <c r="B25" t="n">
@@ -912,9 +1016,15 @@
       <c r="E25" t="n">
         <v>17867.28</v>
       </c>
+      <c r="F25" t="n">
+        <v>2047</v>
+      </c>
+      <c r="G25" t="n">
+        <v>4831</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="7" t="n">
+      <c r="A26" s="6" t="n">
         <v>43191</v>
       </c>
       <c r="B26" t="n">
@@ -929,9 +1039,15 @@
       <c r="E26" t="n">
         <v>18258.07</v>
       </c>
+      <c r="F26" t="n">
+        <v>2055</v>
+      </c>
+      <c r="G26" t="n">
+        <v>4911</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="7" t="n">
+      <c r="A27" s="6" t="n">
         <v>43221</v>
       </c>
       <c r="B27" t="n">
@@ -946,9 +1062,15 @@
       <c r="E27" t="n">
         <v>18833.55</v>
       </c>
+      <c r="F27" t="n">
+        <v>2154</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5083</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="7" t="n">
+      <c r="A28" s="6" t="n">
         <v>43252</v>
       </c>
       <c r="B28" t="n">
@@ -963,9 +1085,15 @@
       <c r="E28" t="n">
         <v>19601.79</v>
       </c>
+      <c r="F28" t="n">
+        <v>2263</v>
+      </c>
+      <c r="G28" t="n">
+        <v>5295</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="7" t="n">
+      <c r="A29" s="6" t="n">
         <v>43282</v>
       </c>
       <c r="B29" t="n">
@@ -980,9 +1108,15 @@
       <c r="E29" t="n">
         <v>20134.07</v>
       </c>
+      <c r="F29" t="n">
+        <v>2349</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5451</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="7" t="n">
+      <c r="A30" s="6" t="n">
         <v>43313</v>
       </c>
       <c r="B30" t="n">
@@ -997,9 +1131,15 @@
       <c r="E30" t="n">
         <v>20868.93</v>
       </c>
+      <c r="F30" t="n">
+        <v>2415</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5650</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="7" t="n">
+      <c r="A31" s="6" t="n">
         <v>43344</v>
       </c>
       <c r="B31" t="n">
@@ -1014,9 +1154,15 @@
       <c r="E31" t="n">
         <v>22558.17</v>
       </c>
+      <c r="F31" t="n">
+        <v>2621</v>
+      </c>
+      <c r="G31" t="n">
+        <v>6107</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="7" t="n">
+      <c r="A32" s="6" t="n">
         <v>43374</v>
       </c>
       <c r="B32" t="n">
@@ -1031,9 +1177,15 @@
       <c r="E32" t="n">
         <v>24241.17</v>
       </c>
+      <c r="F32" t="n">
+        <v>2811</v>
+      </c>
+      <c r="G32" t="n">
+        <v>6549</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="7" t="n">
+      <c r="A33" s="6" t="n">
         <v>43405</v>
       </c>
       <c r="B33" t="n">
@@ -1048,9 +1200,15 @@
       <c r="E33" t="n">
         <v>25206.03</v>
       </c>
+      <c r="F33" t="n">
+        <v>2923</v>
+      </c>
+      <c r="G33" t="n">
+        <v>6810</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="7" t="n">
+      <c r="A34" s="6" t="n">
         <v>43435</v>
       </c>
       <c r="B34" t="n">
@@ -1065,9 +1223,15 @@
       <c r="E34" t="n">
         <v>25493.8</v>
       </c>
+      <c r="F34" t="n">
+        <v>2925</v>
+      </c>
+      <c r="G34" t="n">
+        <v>6846</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="7" t="n">
+      <c r="A35" s="6" t="n">
         <v>43466</v>
       </c>
       <c r="B35" t="n">
@@ -1082,9 +1246,15 @@
       <c r="E35" t="n">
         <v>26442.92</v>
       </c>
+      <c r="F35" t="n">
+        <v>3033</v>
+      </c>
+      <c r="G35" t="n">
+        <v>7097</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="7" t="n">
+      <c r="A36" s="6" t="n">
         <v>43497</v>
       </c>
       <c r="B36" t="n">
@@ -1099,9 +1269,15 @@
       <c r="E36" t="n">
         <v>27570.43</v>
       </c>
+      <c r="F36" t="n">
+        <v>3194</v>
+      </c>
+      <c r="G36" t="n">
+        <v>7409</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="7" t="n">
+      <c r="A37" s="6" t="n">
         <v>43525</v>
       </c>
       <c r="B37" t="n">
@@ -1116,9 +1292,15 @@
       <c r="E37" t="n">
         <v>28750.94</v>
       </c>
+      <c r="F37" t="n">
+        <v>3339</v>
+      </c>
+      <c r="G37" t="n">
+        <v>7746</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="7" t="n">
+      <c r="A38" s="6" t="n">
         <v>43556</v>
       </c>
       <c r="B38" t="n">
@@ -1133,9 +1315,15 @@
       <c r="E38" t="n">
         <v>29493.65</v>
       </c>
+      <c r="F38" t="n">
+        <v>3386</v>
+      </c>
+      <c r="G38" t="n">
+        <v>7924</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="7" t="n">
+      <c r="A39" s="6" t="n">
         <v>43586</v>
       </c>
       <c r="B39" t="n">
@@ -1150,9 +1338,15 @@
       <c r="E39" t="n">
         <v>30337.84</v>
       </c>
+      <c r="F39" t="n">
+        <v>3456</v>
+      </c>
+      <c r="G39" t="n">
+        <v>8121</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="7" t="n">
+      <c r="A40" s="6" t="n">
         <v>43617</v>
       </c>
       <c r="B40" t="n">
@@ -1167,9 +1361,15 @@
       <c r="E40" t="n">
         <v>31148.41</v>
       </c>
+      <c r="F40" t="n">
+        <v>3572</v>
+      </c>
+      <c r="G40" t="n">
+        <v>8394</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="7" t="n">
+      <c r="A41" s="6" t="n">
         <v>43647</v>
       </c>
       <c r="B41" t="n">
@@ -1184,9 +1384,15 @@
       <c r="E41" t="n">
         <v>31934.44</v>
       </c>
+      <c r="F41" t="n">
+        <v>3667</v>
+      </c>
+      <c r="G41" t="n">
+        <v>8581</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="7" t="n">
+      <c r="A42" s="6" t="n">
         <v>43678</v>
       </c>
       <c r="B42" t="n">
@@ -1201,9 +1407,15 @@
       <c r="E42" t="n">
         <v>33013.22</v>
       </c>
+      <c r="F42" t="n">
+        <v>3838</v>
+      </c>
+      <c r="G42" t="n">
+        <v>8942</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="7" t="n">
+      <c r="A43" s="6" t="n">
         <v>43709</v>
       </c>
       <c r="B43" t="n">
@@ -1218,9 +1430,15 @@
       <c r="E43" t="n">
         <v>34784.75</v>
       </c>
+      <c r="F43" t="n">
+        <v>4058</v>
+      </c>
+      <c r="G43" t="n">
+        <v>9487</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="7" t="n">
+      <c r="A44" s="6" t="n">
         <v>43739</v>
       </c>
       <c r="B44" t="n">
@@ -1235,9 +1453,15 @@
       <c r="E44" t="n">
         <v>35647.66</v>
       </c>
+      <c r="F44" t="n">
+        <v>4128</v>
+      </c>
+      <c r="G44" t="n">
+        <v>9701</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="7" t="n">
+      <c r="A45" s="6" t="n">
         <v>43770</v>
       </c>
       <c r="B45" t="n">
@@ -1252,9 +1476,15 @@
       <c r="E45" t="n">
         <v>37596</v>
       </c>
+      <c r="F45" t="n">
+        <v>4403</v>
+      </c>
+      <c r="G45" t="n">
+        <v>10258</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="7" t="n">
+      <c r="A46" s="6" t="n">
         <v>43800</v>
       </c>
       <c r="B46" t="n">
@@ -1269,9 +1499,15 @@
       <c r="E46" t="n">
         <v>38960.33</v>
       </c>
+      <c r="F46" t="n">
+        <v>4519</v>
+      </c>
+      <c r="G46" t="n">
+        <v>10574</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="7" t="n">
+      <c r="A47" s="6" t="n">
         <v>43831</v>
       </c>
       <c r="B47" t="n">
@@ -1286,9 +1522,15 @@
       <c r="E47" t="n">
         <v>40373.01</v>
       </c>
+      <c r="F47" t="n">
+        <v>4750</v>
+      </c>
+      <c r="G47" t="n">
+        <v>10878</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="7" t="n">
+      <c r="A48" s="6" t="n">
         <v>43862</v>
       </c>
       <c r="B48" t="n">
@@ -1303,9 +1545,15 @@
       <c r="E48" t="n">
         <v>40789.67</v>
       </c>
+      <c r="F48" t="n">
+        <v>4877</v>
+      </c>
+      <c r="G48" t="n">
+        <v>11072</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="7" t="n">
+      <c r="A49" s="6" t="n">
         <v>43891</v>
       </c>
       <c r="B49" t="n">
@@ -1320,9 +1568,15 @@
       <c r="E49" t="n">
         <v>41994.86</v>
       </c>
+      <c r="F49" t="n">
+        <v>5051</v>
+      </c>
+      <c r="G49" t="n">
+        <v>11465</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="7" t="n">
+      <c r="A50" s="6" t="n">
         <v>43922</v>
       </c>
       <c r="B50" t="n">
@@ -1337,9 +1591,15 @@
       <c r="E50" t="n">
         <v>42593.98</v>
       </c>
+      <c r="F50" t="n">
+        <v>5163</v>
+      </c>
+      <c r="G50" t="n">
+        <v>11513</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="7" t="n">
+      <c r="A51" s="6" t="n">
         <v>43952</v>
       </c>
       <c r="B51" t="n">
@@ -1354,9 +1614,15 @@
       <c r="E51" t="n">
         <v>43080.38</v>
       </c>
+      <c r="F51" t="n">
+        <v>5150</v>
+      </c>
+      <c r="G51" t="n">
+        <v>11638</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="7" t="n">
+      <c r="A52" s="6" t="n">
         <v>43983</v>
       </c>
       <c r="B52" t="n">
@@ -1371,9 +1637,15 @@
       <c r="E52" t="n">
         <v>43810.7</v>
       </c>
+      <c r="F52" t="n">
+        <v>5198</v>
+      </c>
+      <c r="G52" t="n">
+        <v>11799</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="7" t="n">
+      <c r="A53" s="6" t="n">
         <v>44013</v>
       </c>
       <c r="B53" t="n">
@@ -1388,9 +1660,15 @@
       <c r="E53" t="n">
         <v>44521.25</v>
       </c>
+      <c r="F53" t="n">
+        <v>5290</v>
+      </c>
+      <c r="G53" t="n">
+        <v>12060</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="7" t="n">
+      <c r="A54" s="6" t="n">
         <v>44044</v>
       </c>
       <c r="B54" t="n">
@@ -1405,9 +1683,15 @@
       <c r="E54" t="n">
         <v>45477.66</v>
       </c>
+      <c r="F54" t="n">
+        <v>5433</v>
+      </c>
+      <c r="G54" t="n">
+        <v>12333</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="7" t="n">
+      <c r="A55" s="6" t="n">
         <v>44075</v>
       </c>
       <c r="B55" t="n">
@@ -1422,9 +1706,15 @@
       <c r="E55" t="n">
         <v>47215.97</v>
       </c>
+      <c r="F55" t="n">
+        <v>5632</v>
+      </c>
+      <c r="G55" t="n">
+        <v>12842</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="7" t="n">
+      <c r="A56" s="6" t="n">
         <v>44105</v>
       </c>
       <c r="B56" t="n">
@@ -1439,9 +1729,15 @@
       <c r="E56" t="n">
         <v>49911.6</v>
       </c>
+      <c r="F56" t="n">
+        <v>6014</v>
+      </c>
+      <c r="G56" t="n">
+        <v>13532</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="7" t="n">
+      <c r="A57" s="6" t="n">
         <v>44136</v>
       </c>
       <c r="B57" t="n">
@@ -1456,9 +1752,15 @@
       <c r="E57" t="n">
         <v>51775.6074</v>
       </c>
+      <c r="F57" t="n">
+        <v>6240</v>
+      </c>
+      <c r="G57" t="n">
+        <v>14039</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="7" t="n">
+      <c r="A58" s="6" t="n">
         <v>44166</v>
       </c>
       <c r="B58" t="n">
@@ -1473,9 +1775,15 @@
       <c r="E58" t="n">
         <v>54207.5301</v>
       </c>
+      <c r="F58" t="n">
+        <v>6575</v>
+      </c>
+      <c r="G58" t="n">
+        <v>14729</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="7" t="n">
+      <c r="A59" s="6" t="n">
         <v>44197</v>
       </c>
       <c r="B59" t="n">
@@ -1490,9 +1798,15 @@
       <c r="E59" t="n">
         <v>56458.8423</v>
       </c>
+      <c r="F59" t="n">
+        <v>6898</v>
+      </c>
+      <c r="G59" t="n">
+        <v>15313</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="7" t="n">
+      <c r="A60" s="6" t="n">
         <v>44228</v>
       </c>
       <c r="B60" t="n">
@@ -1507,9 +1821,15 @@
       <c r="E60" t="n">
         <v>57997.48</v>
       </c>
+      <c r="F60" t="n">
+        <v>7147</v>
+      </c>
+      <c r="G60" t="n">
+        <v>15794</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="7" t="n">
+      <c r="A61" s="6" t="n">
         <v>44256</v>
       </c>
       <c r="B61" t="n">
@@ -1524,9 +1844,15 @@
       <c r="E61" t="n">
         <v>60873.6798</v>
       </c>
+      <c r="F61" t="n">
+        <v>7462.07</v>
+      </c>
+      <c r="G61" t="n">
+        <v>16565</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="7" t="n">
+      <c r="A62" s="6" t="n">
         <v>44287</v>
       </c>
       <c r="B62" t="n">
@@ -1541,9 +1867,15 @@
       <c r="E62" t="n">
         <v>62957.5449</v>
       </c>
+      <c r="F62" t="n">
+        <v>7732</v>
+      </c>
+      <c r="G62" t="n">
+        <v>17087</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="7" t="n">
+      <c r="A63" s="6" t="n">
         <v>44317</v>
       </c>
       <c r="B63" t="n">
@@ -1558,9 +1890,15 @@
       <c r="E63" t="n">
         <v>64445.0091</v>
       </c>
+      <c r="F63" t="n">
+        <v>7975</v>
+      </c>
+      <c r="G63" t="n">
+        <v>17545</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="7" t="n">
+      <c r="A64" s="6" t="n">
         <v>44348</v>
       </c>
       <c r="B64" t="n">
@@ -1575,9 +1913,15 @@
       <c r="E64" t="n">
         <v>66488.33339999999</v>
       </c>
+      <c r="F64" t="n">
+        <v>8224.440000000001</v>
+      </c>
+      <c r="G64" t="n">
+        <v>18012</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="7" t="n">
+      <c r="A65" s="6" t="n">
         <v>44378</v>
       </c>
       <c r="B65" t="n">
@@ -1592,9 +1936,15 @@
       <c r="E65" t="n">
         <v>67576.6623</v>
       </c>
+      <c r="F65" t="n">
+        <v>8411.540000000001</v>
+      </c>
+      <c r="G65" t="n">
+        <v>18337</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="7" t="n">
+      <c r="A66" s="6" t="n">
         <v>44409</v>
       </c>
       <c r="B66" t="n">
@@ -1609,9 +1959,15 @@
       <c r="E66" t="n">
         <v>68359.01939999999</v>
       </c>
+      <c r="F66" t="n">
+        <v>8499.58</v>
+      </c>
+      <c r="G66" t="n">
+        <v>18614</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="7" t="n">
+      <c r="A67" s="6" t="n">
         <v>44440</v>
       </c>
       <c r="B67" t="n">
@@ -1626,9 +1982,15 @@
       <c r="E67" t="n">
         <v>70532.4636</v>
       </c>
+      <c r="F67" t="n">
+        <v>8720.450000000001</v>
+      </c>
+      <c r="G67" t="n">
+        <v>19185</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" s="7" t="n">
+      <c r="A68" s="6" t="n">
         <v>44470</v>
       </c>
       <c r="B68" t="n">
@@ -1643,9 +2005,15 @@
       <c r="E68" t="n">
         <v>72365.2971</v>
       </c>
+      <c r="F68" t="n">
+        <v>9027</v>
+      </c>
+      <c r="G68" t="n">
+        <v>19769</v>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" s="7" t="n">
+      <c r="A69" s="6" t="n">
         <v>44501</v>
       </c>
       <c r="B69" t="n">
@@ -1660,9 +2028,15 @@
       <c r="E69" t="n">
         <v>73917.80579999999</v>
       </c>
+      <c r="F69" t="n">
+        <v>9265</v>
+      </c>
+      <c r="G69" t="n">
+        <v>20197</v>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" s="7" t="n">
+      <c r="A70" s="6" t="n">
         <v>44531</v>
       </c>
       <c r="B70" t="n">
@@ -1677,9 +2051,15 @@
       <c r="E70" t="n">
         <v>76146.12839999999</v>
       </c>
+      <c r="F70" t="n">
+        <v>9647</v>
+      </c>
+      <c r="G70" t="n">
+        <v>20837</v>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" s="7" t="n">
+      <c r="A71" s="6" t="n">
         <v>44562</v>
       </c>
       <c r="B71" t="n">
@@ -1694,9 +2074,15 @@
       <c r="E71" t="n">
         <v>78624.4629</v>
       </c>
+      <c r="F71" t="n">
+        <v>10057</v>
+      </c>
+      <c r="G71" t="n">
+        <v>21622</v>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" s="7" t="n">
+      <c r="A72" s="6" t="n">
         <v>44593</v>
       </c>
       <c r="B72" t="n">
@@ -1711,9 +2097,15 @@
       <c r="E72" t="n">
         <v>83807.28999999999</v>
       </c>
+      <c r="F72" t="n">
+        <v>11018</v>
+      </c>
+      <c r="G72" t="n">
+        <v>23028</v>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" s="7" t="n">
+      <c r="A73" s="6" t="n">
         <v>44621</v>
       </c>
       <c r="B73" t="n">
@@ -1728,9 +2120,15 @@
       <c r="E73" t="n">
         <v>89690.37</v>
       </c>
+      <c r="F73" t="n">
+        <v>11695</v>
+      </c>
+      <c r="G73" t="n">
+        <v>24560</v>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" s="7" t="n">
+      <c r="A74" s="6" t="n">
         <v>44652</v>
       </c>
       <c r="B74" t="n">
@@ -1745,9 +2143,15 @@
       <c r="E74" t="n">
         <v>95260.374</v>
       </c>
+      <c r="F74" t="n">
+        <v>12399</v>
+      </c>
+      <c r="G74" t="n">
+        <v>25914</v>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" s="7" t="n">
+      <c r="A75" s="6" t="n">
         <v>44682</v>
       </c>
       <c r="B75" t="n">
@@ -1762,9 +2166,15 @@
       <c r="E75" t="n">
         <v>99676.8492</v>
       </c>
+      <c r="F75" t="n">
+        <v>13006</v>
+      </c>
+      <c r="G75" t="n">
+        <v>27312</v>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" s="7" t="n">
+      <c r="A76" s="6" t="n">
         <v>44713</v>
       </c>
       <c r="B76" t="n">
@@ -1779,9 +2189,15 @@
       <c r="E76" t="n">
         <v>104216.8008</v>
       </c>
+      <c r="F76" t="n">
+        <v>13583</v>
+      </c>
+      <c r="G76" t="n">
+        <v>28525</v>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" s="7" t="n">
+      <c r="A77" s="6" t="n">
         <v>44743</v>
       </c>
       <c r="B77" t="n">
@@ -1796,9 +2212,15 @@
       <c r="E77" t="n">
         <v>111297.5667</v>
       </c>
+      <c r="F77" t="n">
+        <v>14360</v>
+      </c>
+      <c r="G77" t="n">
+        <v>30301</v>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" s="7" t="n">
+      <c r="A78" s="6" t="n">
         <v>44774</v>
       </c>
       <c r="B78" t="n">
@@ -1813,9 +2235,15 @@
       <c r="E78" t="n">
         <v>119756.9361</v>
       </c>
+      <c r="F78" t="n">
+        <v>15431</v>
+      </c>
+      <c r="G78" t="n">
+        <v>32560</v>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" s="7" t="n">
+      <c r="A79" s="6" t="n">
         <v>44805</v>
       </c>
       <c r="B79" t="n">
@@ -1830,9 +2258,15 @@
       <c r="E79" t="n">
         <v>128214.1116</v>
       </c>
+      <c r="F79" t="n">
+        <v>16595</v>
+      </c>
+      <c r="G79" t="n">
+        <v>35010</v>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" s="7" t="n">
+      <c r="A80" s="6" t="n">
         <v>44835</v>
       </c>
       <c r="B80" t="n">
@@ -1847,9 +2281,15 @@
       <c r="E80" t="n">
         <v>139737.7413</v>
       </c>
+      <c r="F80" t="n">
+        <v>18089</v>
+      </c>
+      <c r="G80" t="n">
+        <v>37988</v>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" s="7" t="n">
+      <c r="A81" s="6" t="n">
         <v>44866</v>
       </c>
       <c r="B81" t="n">
@@ -1864,9 +2304,15 @@
       <c r="E81" t="n">
         <v>145947.8688</v>
       </c>
+      <c r="F81" t="n">
+        <v>18575</v>
+      </c>
+      <c r="G81" t="n">
+        <v>39566</v>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" s="7" t="n">
+      <c r="A82" s="6" t="n">
         <v>44896</v>
       </c>
       <c r="B82" t="n">
@@ -1881,9 +2327,15 @@
       <c r="E82" t="n">
         <v>152515.293</v>
       </c>
+      <c r="F82" t="n">
+        <v>19400</v>
+      </c>
+      <c r="G82" t="n">
+        <v>41322</v>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" s="7" t="n">
+      <c r="A83" s="6" t="n">
         <v>44927</v>
       </c>
       <c r="B83" t="n">
@@ -1898,9 +2350,15 @@
       <c r="E83" t="n">
         <v>163538.6826</v>
       </c>
+      <c r="F83" t="n">
+        <v>20912</v>
+      </c>
+      <c r="G83" t="n">
+        <v>44334</v>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" s="7" t="n">
+      <c r="A84" s="6" t="n">
         <v>44958</v>
       </c>
       <c r="B84" t="n">
@@ -1915,9 +2373,15 @@
       <c r="E84" t="n">
         <v>177062.871</v>
       </c>
+      <c r="F84" t="n">
+        <v>23439</v>
+      </c>
+      <c r="G84" t="n">
+        <v>48285</v>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" s="7" t="n">
+      <c r="A85" s="6" t="n">
         <v>44986</v>
       </c>
       <c r="B85" t="n">
@@ -1932,9 +2396,15 @@
       <c r="E85" t="n">
         <v>191228.049</v>
       </c>
+      <c r="F85" t="n">
+        <v>25469</v>
+      </c>
+      <c r="G85" t="n">
+        <v>51956</v>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" s="7" t="n">
+      <c r="A86" s="6" t="n">
         <v>45017</v>
       </c>
       <c r="B86" t="n">
@@ -1949,9 +2419,15 @@
       <c r="E86" t="n">
         <v>203360.6868</v>
       </c>
+      <c r="F86" t="n">
+        <v>27228</v>
+      </c>
+      <c r="G86" t="n">
+        <v>55273</v>
+      </c>
     </row>
     <row r="87">
-      <c r="A87" s="7" t="n">
+      <c r="A87" s="6" t="n">
         <v>45047</v>
       </c>
       <c r="B87" t="n">
@@ -1966,9 +2442,15 @@
       <c r="E87" t="n">
         <v>217915.7919</v>
       </c>
+      <c r="F87" t="n">
+        <v>28683</v>
+      </c>
+      <c r="G87" t="n">
+        <v>59086</v>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" s="7" t="n">
+      <c r="A88" s="6" t="n">
         <v>45078</v>
       </c>
       <c r="B88" t="n">
@@ -1983,9 +2465,15 @@
       <c r="E88" t="n">
         <v>232426.8336</v>
       </c>
+      <c r="F88" t="n">
+        <v>30155</v>
+      </c>
+      <c r="G88" t="n">
+        <v>63025</v>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" s="7" t="n">
+      <c r="A89" s="6" t="n">
         <v>45108</v>
       </c>
       <c r="B89" t="n">
@@ -2002,7 +2490,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="7" t="n">
+      <c r="A90" s="6" t="n">
         <v>45139</v>
       </c>
       <c r="B90" t="n">
@@ -2019,7 +2507,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="7" t="n">
+      <c r="A91" s="6" t="n">
         <v>45170</v>
       </c>
       <c r="B91" t="n">

--- a/scrap_CBT/files/Calculos.xlsx
+++ b/scrap_CBT/files/Calculos.xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>3100</v>
+        <v>3099.86</v>
       </c>
     </row>
     <row r="3">
@@ -526,7 +526,7 @@
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>3230</v>
+        <v>3229.82</v>
       </c>
     </row>
     <row r="4">
@@ -547,7 +547,7 @@
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>3315</v>
+        <v>3315.17</v>
       </c>
     </row>
     <row r="5">
@@ -568,7 +568,7 @@
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>3396</v>
+        <v>3396.4</v>
       </c>
     </row>
     <row r="6">
@@ -589,7 +589,7 @@
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>3394</v>
+        <v>3394.32</v>
       </c>
     </row>
     <row r="7">
@@ -610,7 +610,7 @@
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>3451</v>
+        <v>3451.12</v>
       </c>
     </row>
     <row r="8">
@@ -631,7 +631,7 @@
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>3524</v>
+        <v>3524.49</v>
       </c>
     </row>
     <row r="9">
@@ -652,7 +652,7 @@
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>3540</v>
+        <v>3539.66</v>
       </c>
     </row>
     <row r="10">
@@ -672,10 +672,10 @@
         <v>13155.83</v>
       </c>
       <c r="F10" t="n">
-        <v>1502</v>
+        <v>1501.63</v>
       </c>
       <c r="G10" t="n">
-        <v>3552</v>
+        <v>3551.79</v>
       </c>
     </row>
     <row r="11">
@@ -695,10 +695,10 @@
         <v>13323.62</v>
       </c>
       <c r="F11" t="n">
-        <v>1521</v>
+        <v>1520.78</v>
       </c>
       <c r="G11" t="n">
-        <v>3594</v>
+        <v>3594.39</v>
       </c>
     </row>
     <row r="12">
@@ -718,7 +718,7 @@
         <v>13673.5</v>
       </c>
       <c r="F12" t="n">
-        <v>1548</v>
+        <v>1547.87</v>
       </c>
       <c r="G12" t="n">
         <v>3694</v>
@@ -741,10 +741,10 @@
         <v>14090.52</v>
       </c>
       <c r="F13" t="n">
-        <v>1595</v>
+        <v>1595.08</v>
       </c>
       <c r="G13" t="n">
-        <v>3797</v>
+        <v>3797.21</v>
       </c>
     </row>
     <row r="14">
@@ -764,10 +764,10 @@
         <v>14501.06</v>
       </c>
       <c r="F14" t="n">
-        <v>1628</v>
+        <v>1628.15</v>
       </c>
       <c r="G14" t="n">
-        <v>3914</v>
+        <v>3913.79</v>
       </c>
     </row>
     <row r="15">
@@ -787,10 +787,10 @@
         <v>14665.88</v>
       </c>
       <c r="F15" t="n">
-        <v>1647</v>
+        <v>1646.65</v>
       </c>
       <c r="G15" t="n">
-        <v>3960</v>
+        <v>3960.33</v>
       </c>
     </row>
     <row r="16">
@@ -810,10 +810,10 @@
         <v>14811.08</v>
       </c>
       <c r="F16" t="n">
-        <v>1663</v>
+        <v>1662.96</v>
       </c>
       <c r="G16" t="n">
-        <v>4011</v>
+        <v>4010.67</v>
       </c>
     </row>
     <row r="17">
@@ -833,10 +833,10 @@
         <v>15024.72</v>
       </c>
       <c r="F17" t="n">
-        <v>1687</v>
+        <v>1686.94</v>
       </c>
       <c r="G17" t="n">
-        <v>4133</v>
+        <v>4133.01</v>
       </c>
     </row>
     <row r="18">
@@ -856,10 +856,10 @@
         <v>15244.92</v>
       </c>
       <c r="F18" t="n">
-        <v>1719</v>
+        <v>1718.68</v>
       </c>
       <c r="G18" t="n">
-        <v>4194</v>
+        <v>4193.59</v>
       </c>
     </row>
     <row r="19">
@@ -879,10 +879,10 @@
         <v>15451.58</v>
       </c>
       <c r="F19" t="n">
-        <v>1742</v>
+        <v>1741.98</v>
       </c>
       <c r="G19" t="n">
-        <v>4250</v>
+        <v>4250.43</v>
       </c>
     </row>
     <row r="20">
@@ -902,10 +902,10 @@
         <v>15676.56</v>
       </c>
       <c r="F20" t="n">
-        <v>1767</v>
+        <v>1767.35</v>
       </c>
       <c r="G20" t="n">
-        <v>4312</v>
+        <v>4312.32</v>
       </c>
     </row>
     <row r="21">
@@ -925,10 +925,10 @@
         <v>16027.98</v>
       </c>
       <c r="F21" t="n">
-        <v>1807</v>
+        <v>1806.96</v>
       </c>
       <c r="G21" t="n">
-        <v>4409</v>
+        <v>4408.99</v>
       </c>
     </row>
     <row r="22">
@@ -948,10 +948,10 @@
         <v>16677.44</v>
       </c>
       <c r="F22" t="n">
-        <v>1828</v>
+        <v>1827.75</v>
       </c>
       <c r="G22" t="n">
-        <v>4588</v>
+        <v>4587.65</v>
       </c>
     </row>
     <row r="23">
@@ -971,10 +971,10 @@
         <v>16973.83</v>
       </c>
       <c r="F23" t="n">
-        <v>1960</v>
+        <v>1960.18</v>
       </c>
       <c r="G23" t="n">
-        <v>4587</v>
+        <v>4586.82</v>
       </c>
     </row>
     <row r="24">
@@ -994,10 +994,10 @@
         <v>17537.88</v>
       </c>
       <c r="F24" t="n">
-        <v>2018</v>
+        <v>2018.25</v>
       </c>
       <c r="G24" t="n">
-        <v>4743</v>
+        <v>4742.91</v>
       </c>
     </row>
     <row r="25">
@@ -1017,10 +1017,10 @@
         <v>17867.28</v>
       </c>
       <c r="F25" t="n">
-        <v>2047</v>
+        <v>2047.14</v>
       </c>
       <c r="G25" t="n">
-        <v>4831</v>
+        <v>4831.25</v>
       </c>
     </row>
     <row r="26">
@@ -1040,10 +1040,10 @@
         <v>18258.07</v>
       </c>
       <c r="F26" t="n">
-        <v>2055</v>
+        <v>2054.75</v>
       </c>
       <c r="G26" t="n">
-        <v>4911</v>
+        <v>4910.88</v>
       </c>
     </row>
     <row r="27">
@@ -1063,10 +1063,10 @@
         <v>18833.55</v>
       </c>
       <c r="F27" t="n">
-        <v>2154</v>
+        <v>2153.6</v>
       </c>
       <c r="G27" t="n">
-        <v>5083</v>
+        <v>5082.5</v>
       </c>
     </row>
     <row r="28">
@@ -1086,10 +1086,10 @@
         <v>19601.79</v>
       </c>
       <c r="F28" t="n">
-        <v>2263</v>
+        <v>2262.69</v>
       </c>
       <c r="G28" t="n">
-        <v>5295</v>
+        <v>5294.72</v>
       </c>
     </row>
     <row r="29">
@@ -1109,10 +1109,10 @@
         <v>20134.07</v>
       </c>
       <c r="F29" t="n">
-        <v>2349</v>
+        <v>2349.39</v>
       </c>
       <c r="G29" t="n">
-        <v>5451</v>
+        <v>5450.56</v>
       </c>
     </row>
     <row r="30">
@@ -1132,10 +1132,10 @@
         <v>20868.93</v>
       </c>
       <c r="F30" t="n">
-        <v>2415</v>
+        <v>2414.6</v>
       </c>
       <c r="G30" t="n">
-        <v>5650</v>
+        <v>5650.16</v>
       </c>
     </row>
     <row r="31">
@@ -1155,10 +1155,10 @@
         <v>22558.17</v>
       </c>
       <c r="F31" t="n">
-        <v>2621</v>
+        <v>2620.84</v>
       </c>
       <c r="G31" t="n">
-        <v>6107</v>
+        <v>6106.56</v>
       </c>
     </row>
     <row r="32">
@@ -1178,10 +1178,10 @@
         <v>24241.17</v>
       </c>
       <c r="F32" t="n">
-        <v>2811</v>
+        <v>2810.69</v>
       </c>
       <c r="G32" t="n">
-        <v>6549</v>
+        <v>6548.91</v>
       </c>
     </row>
     <row r="33">
@@ -1201,10 +1201,10 @@
         <v>25206.03</v>
       </c>
       <c r="F33" t="n">
-        <v>2923</v>
+        <v>2922.84</v>
       </c>
       <c r="G33" t="n">
-        <v>6810</v>
+        <v>6810.22</v>
       </c>
     </row>
     <row r="34">
@@ -1224,10 +1224,10 @@
         <v>25493.8</v>
       </c>
       <c r="F34" t="n">
-        <v>2925</v>
+        <v>2925.2</v>
       </c>
       <c r="G34" t="n">
-        <v>6846</v>
+        <v>6845.67</v>
       </c>
     </row>
     <row r="35">
@@ -1247,10 +1247,10 @@
         <v>26442.92</v>
       </c>
       <c r="F35" t="n">
-        <v>3033</v>
+        <v>3033.1</v>
       </c>
       <c r="G35" t="n">
-        <v>7097</v>
+        <v>7097.45</v>
       </c>
     </row>
     <row r="36">
@@ -1270,10 +1270,10 @@
         <v>27570.43</v>
       </c>
       <c r="F36" t="n">
-        <v>3194</v>
+        <v>3193.74</v>
       </c>
       <c r="G36" t="n">
-        <v>7409</v>
+        <v>7409.48</v>
       </c>
     </row>
     <row r="37">
@@ -1293,10 +1293,10 @@
         <v>28750.94</v>
       </c>
       <c r="F37" t="n">
-        <v>3339</v>
+        <v>3338.64</v>
       </c>
       <c r="G37" t="n">
-        <v>7746</v>
+        <v>7745.64</v>
       </c>
     </row>
     <row r="38">
@@ -1316,10 +1316,10 @@
         <v>29493.65</v>
       </c>
       <c r="F38" t="n">
-        <v>3386</v>
+        <v>3386.24</v>
       </c>
       <c r="G38" t="n">
-        <v>7924</v>
+        <v>7923.8</v>
       </c>
     </row>
     <row r="39">
@@ -1339,10 +1339,10 @@
         <v>30337.84</v>
       </c>
       <c r="F39" t="n">
-        <v>3456</v>
+        <v>3455.83</v>
       </c>
       <c r="G39" t="n">
-        <v>8121</v>
+        <v>8121.2</v>
       </c>
     </row>
     <row r="40">
@@ -1362,10 +1362,10 @@
         <v>31148.41</v>
       </c>
       <c r="F40" t="n">
-        <v>3572</v>
+        <v>3571.74</v>
       </c>
       <c r="G40" t="n">
-        <v>8394</v>
+        <v>8393.59</v>
       </c>
     </row>
     <row r="41">
@@ -1385,10 +1385,10 @@
         <v>31934.44</v>
       </c>
       <c r="F41" t="n">
-        <v>3667</v>
+        <v>3667.14</v>
       </c>
       <c r="G41" t="n">
-        <v>8581</v>
+        <v>8581.110000000001</v>
       </c>
     </row>
     <row r="42">
@@ -1408,10 +1408,10 @@
         <v>33013.22</v>
       </c>
       <c r="F42" t="n">
-        <v>3838</v>
+        <v>3837.66</v>
       </c>
       <c r="G42" t="n">
-        <v>8942</v>
+        <v>8941.75</v>
       </c>
     </row>
     <row r="43">
@@ -1431,10 +1431,10 @@
         <v>34784.75</v>
       </c>
       <c r="F43" t="n">
-        <v>4058</v>
+        <v>4058.18</v>
       </c>
       <c r="G43" t="n">
-        <v>9487</v>
+        <v>9486.780000000001</v>
       </c>
     </row>
     <row r="44">
@@ -1454,10 +1454,10 @@
         <v>35647.66</v>
       </c>
       <c r="F44" t="n">
-        <v>4128</v>
+        <v>4128.29</v>
       </c>
       <c r="G44" t="n">
-        <v>9701</v>
+        <v>9701.48</v>
       </c>
     </row>
     <row r="45">
@@ -1477,10 +1477,10 @@
         <v>37596</v>
       </c>
       <c r="F45" t="n">
-        <v>4403</v>
+        <v>4402.7</v>
       </c>
       <c r="G45" t="n">
-        <v>10258</v>
+        <v>10258.29</v>
       </c>
     </row>
     <row r="46">
@@ -1500,10 +1500,10 @@
         <v>38960.33</v>
       </c>
       <c r="F46" t="n">
-        <v>4519</v>
+        <v>4518.72</v>
       </c>
       <c r="G46" t="n">
-        <v>10574</v>
+        <v>10573.8</v>
       </c>
     </row>
     <row r="47">
@@ -1523,10 +1523,10 @@
         <v>40373.01</v>
       </c>
       <c r="F47" t="n">
-        <v>4750</v>
+        <v>4750.37</v>
       </c>
       <c r="G47" t="n">
-        <v>10878</v>
+        <v>10878.35</v>
       </c>
     </row>
     <row r="48">
@@ -1546,10 +1546,10 @@
         <v>40789.67</v>
       </c>
       <c r="F48" t="n">
-        <v>4877</v>
+        <v>4877.37</v>
       </c>
       <c r="G48" t="n">
-        <v>11072</v>
+        <v>11071.63</v>
       </c>
     </row>
     <row r="49">
@@ -1569,10 +1569,10 @@
         <v>41994.86</v>
       </c>
       <c r="F49" t="n">
-        <v>5051</v>
+        <v>5050.68</v>
       </c>
       <c r="G49" t="n">
-        <v>11465</v>
+        <v>11465.04</v>
       </c>
     </row>
     <row r="50">
@@ -1592,10 +1592,10 @@
         <v>42593.98</v>
       </c>
       <c r="F50" t="n">
-        <v>5163</v>
+        <v>5162.86</v>
       </c>
       <c r="G50" t="n">
-        <v>11513</v>
+        <v>11513.18</v>
       </c>
     </row>
     <row r="51">
@@ -1615,10 +1615,10 @@
         <v>43080.38</v>
       </c>
       <c r="F51" t="n">
-        <v>5150</v>
+        <v>5149.71</v>
       </c>
       <c r="G51" t="n">
-        <v>11638</v>
+        <v>11638.34</v>
       </c>
     </row>
     <row r="52">
@@ -1641,7 +1641,7 @@
         <v>5198</v>
       </c>
       <c r="G52" t="n">
-        <v>11799</v>
+        <v>11799.46</v>
       </c>
     </row>
     <row r="53">
@@ -1661,10 +1661,10 @@
         <v>44521.25</v>
       </c>
       <c r="F53" t="n">
-        <v>5290</v>
+        <v>5289.67</v>
       </c>
       <c r="G53" t="n">
-        <v>12060</v>
+        <v>12060.45</v>
       </c>
     </row>
     <row r="54">
@@ -1684,10 +1684,10 @@
         <v>45477.66</v>
       </c>
       <c r="F54" t="n">
-        <v>5433</v>
+        <v>5432.89</v>
       </c>
       <c r="G54" t="n">
-        <v>12333</v>
+        <v>12332.66</v>
       </c>
     </row>
     <row r="55">
@@ -1707,10 +1707,10 @@
         <v>47215.97</v>
       </c>
       <c r="F55" t="n">
-        <v>5632</v>
+        <v>5632.44</v>
       </c>
       <c r="G55" t="n">
-        <v>12842</v>
+        <v>12841.96</v>
       </c>
     </row>
     <row r="56">
@@ -1730,10 +1730,10 @@
         <v>49911.6</v>
       </c>
       <c r="F56" t="n">
-        <v>6014</v>
+        <v>6014.33</v>
       </c>
       <c r="G56" t="n">
-        <v>13532</v>
+        <v>13532.24</v>
       </c>
     </row>
     <row r="57">
@@ -1753,10 +1753,10 @@
         <v>51775.6074</v>
       </c>
       <c r="F57" t="n">
-        <v>6240</v>
+        <v>6239.72</v>
       </c>
       <c r="G57" t="n">
-        <v>14039</v>
+        <v>14039.37</v>
       </c>
     </row>
     <row r="58">
@@ -1776,10 +1776,10 @@
         <v>54207.5301</v>
       </c>
       <c r="F58" t="n">
-        <v>6575</v>
+        <v>6575.43</v>
       </c>
       <c r="G58" t="n">
-        <v>14729</v>
+        <v>14728.96</v>
       </c>
     </row>
     <row r="59">
@@ -1799,10 +1799,10 @@
         <v>56458.8423</v>
       </c>
       <c r="F59" t="n">
-        <v>6898</v>
+        <v>6897.58</v>
       </c>
       <c r="G59" t="n">
-        <v>15313</v>
+        <v>15312.62</v>
       </c>
     </row>
     <row r="60">
@@ -1822,10 +1822,10 @@
         <v>57997.48</v>
       </c>
       <c r="F60" t="n">
-        <v>7147</v>
+        <v>7146.83</v>
       </c>
       <c r="G60" t="n">
-        <v>15794</v>
+        <v>15794.49</v>
       </c>
     </row>
     <row r="61">
@@ -1868,10 +1868,10 @@
         <v>62957.5449</v>
       </c>
       <c r="F62" t="n">
-        <v>7732</v>
+        <v>7731.56</v>
       </c>
       <c r="G62" t="n">
-        <v>17087</v>
+        <v>17086.75</v>
       </c>
     </row>
     <row r="63">
@@ -1917,7 +1917,7 @@
         <v>8224.440000000001</v>
       </c>
       <c r="G64" t="n">
-        <v>18012</v>
+        <v>18011.52</v>
       </c>
     </row>
     <row r="65">
@@ -1940,7 +1940,7 @@
         <v>8411.540000000001</v>
       </c>
       <c r="G65" t="n">
-        <v>18337</v>
+        <v>18337.16</v>
       </c>
     </row>
     <row r="66">
@@ -1963,7 +1963,7 @@
         <v>8499.58</v>
       </c>
       <c r="G66" t="n">
-        <v>18614</v>
+        <v>18614.08</v>
       </c>
     </row>
     <row r="67">
@@ -1986,7 +1986,7 @@
         <v>8720.450000000001</v>
       </c>
       <c r="G67" t="n">
-        <v>19185</v>
+        <v>19184.99</v>
       </c>
     </row>
     <row r="68">
@@ -2006,10 +2006,10 @@
         <v>72365.2971</v>
       </c>
       <c r="F68" t="n">
-        <v>9027</v>
+        <v>9026.77</v>
       </c>
       <c r="G68" t="n">
-        <v>19769</v>
+        <v>19768.63</v>
       </c>
     </row>
     <row r="69">
@@ -2029,7 +2029,7 @@
         <v>73917.80579999999</v>
       </c>
       <c r="F69" t="n">
-        <v>9265</v>
+        <v>9264.68</v>
       </c>
       <c r="G69" t="n">
         <v>20197</v>
@@ -2052,10 +2052,10 @@
         <v>76146.12839999999</v>
       </c>
       <c r="F70" t="n">
-        <v>9647</v>
+        <v>9646.809999999999</v>
       </c>
       <c r="G70" t="n">
-        <v>20837</v>
+        <v>20837.11</v>
       </c>
     </row>
     <row r="71">
@@ -2075,7 +2075,7 @@
         <v>78624.4629</v>
       </c>
       <c r="F71" t="n">
-        <v>10057</v>
+        <v>10056.8</v>
       </c>
       <c r="G71" t="n">
         <v>21622</v>
@@ -2098,10 +2098,10 @@
         <v>83807.28999999999</v>
       </c>
       <c r="F72" t="n">
-        <v>11018</v>
+        <v>11017.95</v>
       </c>
       <c r="G72" t="n">
-        <v>23028</v>
+        <v>23027.52</v>
       </c>
     </row>
     <row r="73">
@@ -2121,10 +2121,10 @@
         <v>89690.37</v>
       </c>
       <c r="F73" t="n">
-        <v>11695</v>
+        <v>11695.46</v>
       </c>
       <c r="G73" t="n">
-        <v>24560</v>
+        <v>24560.47</v>
       </c>
     </row>
     <row r="74">
@@ -2147,7 +2147,7 @@
         <v>12399</v>
       </c>
       <c r="G74" t="n">
-        <v>25914</v>
+        <v>25914.1</v>
       </c>
     </row>
     <row r="75">
@@ -2167,10 +2167,10 @@
         <v>99676.8492</v>
       </c>
       <c r="F75" t="n">
-        <v>13006</v>
+        <v>13005.65</v>
       </c>
       <c r="G75" t="n">
-        <v>27312</v>
+        <v>27311.87</v>
       </c>
     </row>
     <row r="76">
@@ -2190,10 +2190,10 @@
         <v>104216.8008</v>
       </c>
       <c r="F76" t="n">
-        <v>13583</v>
+        <v>13583.26</v>
       </c>
       <c r="G76" t="n">
-        <v>28525</v>
+        <v>28524.85</v>
       </c>
     </row>
     <row r="77">
@@ -2216,7 +2216,7 @@
         <v>14360</v>
       </c>
       <c r="G77" t="n">
-        <v>30301</v>
+        <v>30300.97</v>
       </c>
     </row>
     <row r="78">
@@ -2236,10 +2236,10 @@
         <v>119756.9361</v>
       </c>
       <c r="F78" t="n">
-        <v>15431</v>
+        <v>15431.25</v>
       </c>
       <c r="G78" t="n">
-        <v>32560</v>
+        <v>32559.94</v>
       </c>
     </row>
     <row r="79">
@@ -2259,10 +2259,10 @@
         <v>128214.1116</v>
       </c>
       <c r="F79" t="n">
-        <v>16595</v>
+        <v>16595.26</v>
       </c>
       <c r="G79" t="n">
-        <v>35010</v>
+        <v>35009.67</v>
       </c>
     </row>
     <row r="80">
@@ -2282,10 +2282,10 @@
         <v>139737.7413</v>
       </c>
       <c r="F80" t="n">
-        <v>18089</v>
+        <v>18089.37</v>
       </c>
       <c r="G80" t="n">
-        <v>37988</v>
+        <v>37987.68</v>
       </c>
     </row>
     <row r="81">
@@ -2305,10 +2305,10 @@
         <v>145947.8688</v>
       </c>
       <c r="F81" t="n">
-        <v>18575</v>
+        <v>18575.4</v>
       </c>
       <c r="G81" t="n">
-        <v>39566</v>
+        <v>39565.6</v>
       </c>
     </row>
     <row r="82">
@@ -2328,10 +2328,10 @@
         <v>152515.293</v>
       </c>
       <c r="F82" t="n">
-        <v>19400</v>
+        <v>19400.06</v>
       </c>
       <c r="G82" t="n">
-        <v>41322</v>
+        <v>41322.13</v>
       </c>
     </row>
     <row r="83">
@@ -2351,10 +2351,10 @@
         <v>163538.6826</v>
       </c>
       <c r="F83" t="n">
-        <v>20912</v>
+        <v>20912.11</v>
       </c>
       <c r="G83" t="n">
-        <v>44334</v>
+        <v>44333.67</v>
       </c>
     </row>
     <row r="84">
@@ -2374,10 +2374,10 @@
         <v>177062.871</v>
       </c>
       <c r="F84" t="n">
-        <v>23439</v>
+        <v>23439.2</v>
       </c>
       <c r="G84" t="n">
-        <v>48285</v>
+        <v>48284.75</v>
       </c>
     </row>
     <row r="85">
@@ -2397,10 +2397,10 @@
         <v>191228.049</v>
       </c>
       <c r="F85" t="n">
-        <v>25469</v>
+        <v>25468.85</v>
       </c>
       <c r="G85" t="n">
-        <v>51956</v>
+        <v>51956.45</v>
       </c>
     </row>
     <row r="86">
@@ -2420,10 +2420,10 @@
         <v>203360.6868</v>
       </c>
       <c r="F86" t="n">
-        <v>27228</v>
+        <v>27227.86</v>
       </c>
       <c r="G86" t="n">
-        <v>55273</v>
+        <v>55272.56</v>
       </c>
     </row>
     <row r="87">
@@ -2443,10 +2443,10 @@
         <v>217915.7919</v>
       </c>
       <c r="F87" t="n">
-        <v>28683</v>
+        <v>28682.66</v>
       </c>
       <c r="G87" t="n">
-        <v>59086</v>
+        <v>59086.28</v>
       </c>
     </row>
     <row r="88">
@@ -2466,10 +2466,10 @@
         <v>232426.8336</v>
       </c>
       <c r="F88" t="n">
-        <v>30155</v>
+        <v>30155.44</v>
       </c>
       <c r="G88" t="n">
-        <v>63025</v>
+        <v>63024.87</v>
       </c>
     </row>
     <row r="89">

--- a/scrap_CBT/files/Calculos.xlsx
+++ b/scrap_CBT/files/Calculos.xlsx
@@ -15,9 +15,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -436,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -2511,7 +2512,7 @@
         <v>45170</v>
       </c>
       <c r="B91" t="n">
-        <v>47858.79</v>
+        <v>47857.79</v>
       </c>
       <c r="C91" t="n">
         <v>103372.83</v>
@@ -2521,6 +2522,23 @@
       </c>
       <c r="E91" t="n">
         <v>319422.0447</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="6" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B92" t="n">
+        <v>51974.93</v>
+      </c>
+      <c r="C92" t="n">
+        <v>111746.1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>160602.5337</v>
+      </c>
+      <c r="E92" t="n">
+        <v>345295.449</v>
       </c>
     </row>
   </sheetData>

--- a/scrap_CBT/files/Calculos.xlsx
+++ b/scrap_CBT/files/Calculos.xlsx
@@ -3,35 +3,28 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -45,27 +38,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -78,22 +56,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,68 +409,62 @@
   <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col width="18.140625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="11.5703125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="11.28515625" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="12" bestFit="1" customWidth="1" min="4" max="4"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="4" t="inlineStr">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Fecha</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>CBA_Adulto</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>CBT_Adulto</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>CBA_Hogar</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>CBT_Hogar</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>cba_nea</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>cbt_nea</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="n">
+      <c r="A2" s="3" t="n">
         <v>42461</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" t="n">
         <v>1514.53</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" t="n">
         <v>3663.66</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" t="n">
         <v>4679.91</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" t="n">
         <v>11320.71</v>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -510,7 +473,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="n">
+      <c r="A3" s="3" t="n">
         <v>42491</v>
       </c>
       <c r="B3" t="n">
@@ -531,7 +494,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="n">
+      <c r="A4" s="3" t="n">
         <v>42522</v>
       </c>
       <c r="B4" t="n">
@@ -552,7 +515,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="n">
+      <c r="A5" s="3" t="n">
         <v>42552</v>
       </c>
       <c r="B5" t="n">
@@ -573,7 +536,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="n">
+      <c r="A6" s="3" t="n">
         <v>42583</v>
       </c>
       <c r="B6" t="n">
@@ -594,7 +557,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="n">
+      <c r="A7" s="3" t="n">
         <v>42614</v>
       </c>
       <c r="B7" t="n">
@@ -615,7 +578,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="n">
+      <c r="A8" s="3" t="n">
         <v>42644</v>
       </c>
       <c r="B8" t="n">
@@ -636,7 +599,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="n">
+      <c r="A9" s="3" t="n">
         <v>42675</v>
       </c>
       <c r="B9" t="n">
@@ -657,7 +620,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="n">
+      <c r="A10" s="3" t="n">
         <v>42705</v>
       </c>
       <c r="B10" t="n">
@@ -680,7 +643,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="n">
+      <c r="A11" s="3" t="n">
         <v>42736</v>
       </c>
       <c r="B11" t="n">
@@ -703,7 +666,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="n">
+      <c r="A12" s="3" t="n">
         <v>42767</v>
       </c>
       <c r="B12" t="n">
@@ -726,7 +689,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="n">
+      <c r="A13" s="3" t="n">
         <v>42795</v>
       </c>
       <c r="B13" t="n">
@@ -749,7 +712,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="n">
+      <c r="A14" s="3" t="n">
         <v>42826</v>
       </c>
       <c r="B14" t="n">
@@ -772,7 +735,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="n">
+      <c r="A15" s="3" t="n">
         <v>42856</v>
       </c>
       <c r="B15" t="n">
@@ -795,7 +758,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="n">
+      <c r="A16" s="3" t="n">
         <v>42887</v>
       </c>
       <c r="B16" t="n">
@@ -818,7 +781,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="n">
+      <c r="A17" s="3" t="n">
         <v>42917</v>
       </c>
       <c r="B17" t="n">
@@ -841,7 +804,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="n">
+      <c r="A18" s="3" t="n">
         <v>42948</v>
       </c>
       <c r="B18" t="n">
@@ -864,7 +827,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="n">
+      <c r="A19" s="3" t="n">
         <v>42979</v>
       </c>
       <c r="B19" t="n">
@@ -887,7 +850,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="n">
+      <c r="A20" s="3" t="n">
         <v>43009</v>
       </c>
       <c r="B20" t="n">
@@ -910,7 +873,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="n">
+      <c r="A21" s="3" t="n">
         <v>43040</v>
       </c>
       <c r="B21" t="n">
@@ -933,7 +896,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="n">
+      <c r="A22" s="3" t="n">
         <v>43070</v>
       </c>
       <c r="B22" t="n">
@@ -956,7 +919,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="n">
+      <c r="A23" s="3" t="n">
         <v>43101</v>
       </c>
       <c r="B23" t="n">
@@ -979,7 +942,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="n">
+      <c r="A24" s="3" t="n">
         <v>43132</v>
       </c>
       <c r="B24" t="n">
@@ -1002,7 +965,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="n">
+      <c r="A25" s="3" t="n">
         <v>43160</v>
       </c>
       <c r="B25" t="n">
@@ -1025,7 +988,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="n">
+      <c r="A26" s="3" t="n">
         <v>43191</v>
       </c>
       <c r="B26" t="n">
@@ -1048,7 +1011,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="6" t="n">
+      <c r="A27" s="3" t="n">
         <v>43221</v>
       </c>
       <c r="B27" t="n">
@@ -1071,7 +1034,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="6" t="n">
+      <c r="A28" s="3" t="n">
         <v>43252</v>
       </c>
       <c r="B28" t="n">
@@ -1094,7 +1057,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="6" t="n">
+      <c r="A29" s="3" t="n">
         <v>43282</v>
       </c>
       <c r="B29" t="n">
@@ -1117,7 +1080,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="6" t="n">
+      <c r="A30" s="3" t="n">
         <v>43313</v>
       </c>
       <c r="B30" t="n">
@@ -1140,7 +1103,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="6" t="n">
+      <c r="A31" s="3" t="n">
         <v>43344</v>
       </c>
       <c r="B31" t="n">
@@ -1163,7 +1126,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="6" t="n">
+      <c r="A32" s="3" t="n">
         <v>43374</v>
       </c>
       <c r="B32" t="n">
@@ -1186,7 +1149,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="n">
+      <c r="A33" s="3" t="n">
         <v>43405</v>
       </c>
       <c r="B33" t="n">
@@ -1209,7 +1172,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="n">
+      <c r="A34" s="3" t="n">
         <v>43435</v>
       </c>
       <c r="B34" t="n">
@@ -1232,7 +1195,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="n">
+      <c r="A35" s="3" t="n">
         <v>43466</v>
       </c>
       <c r="B35" t="n">
@@ -1255,7 +1218,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="n">
+      <c r="A36" s="3" t="n">
         <v>43497</v>
       </c>
       <c r="B36" t="n">
@@ -1278,7 +1241,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="n">
+      <c r="A37" s="3" t="n">
         <v>43525</v>
       </c>
       <c r="B37" t="n">
@@ -1301,7 +1264,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="n">
+      <c r="A38" s="3" t="n">
         <v>43556</v>
       </c>
       <c r="B38" t="n">
@@ -1324,7 +1287,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="n">
+      <c r="A39" s="3" t="n">
         <v>43586</v>
       </c>
       <c r="B39" t="n">
@@ -1347,7 +1310,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="n">
+      <c r="A40" s="3" t="n">
         <v>43617</v>
       </c>
       <c r="B40" t="n">
@@ -1370,7 +1333,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="n">
+      <c r="A41" s="3" t="n">
         <v>43647</v>
       </c>
       <c r="B41" t="n">
@@ -1393,7 +1356,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="n">
+      <c r="A42" s="3" t="n">
         <v>43678</v>
       </c>
       <c r="B42" t="n">
@@ -1416,7 +1379,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="n">
+      <c r="A43" s="3" t="n">
         <v>43709</v>
       </c>
       <c r="B43" t="n">
@@ -1439,7 +1402,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="n">
+      <c r="A44" s="3" t="n">
         <v>43739</v>
       </c>
       <c r="B44" t="n">
@@ -1462,7 +1425,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="6" t="n">
+      <c r="A45" s="3" t="n">
         <v>43770</v>
       </c>
       <c r="B45" t="n">
@@ -1485,7 +1448,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="6" t="n">
+      <c r="A46" s="3" t="n">
         <v>43800</v>
       </c>
       <c r="B46" t="n">
@@ -1508,7 +1471,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="6" t="n">
+      <c r="A47" s="3" t="n">
         <v>43831</v>
       </c>
       <c r="B47" t="n">
@@ -1531,7 +1494,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="6" t="n">
+      <c r="A48" s="3" t="n">
         <v>43862</v>
       </c>
       <c r="B48" t="n">
@@ -1554,7 +1517,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="6" t="n">
+      <c r="A49" s="3" t="n">
         <v>43891</v>
       </c>
       <c r="B49" t="n">
@@ -1577,7 +1540,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="6" t="n">
+      <c r="A50" s="3" t="n">
         <v>43922</v>
       </c>
       <c r="B50" t="n">
@@ -1600,7 +1563,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="6" t="n">
+      <c r="A51" s="3" t="n">
         <v>43952</v>
       </c>
       <c r="B51" t="n">
@@ -1623,7 +1586,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="n">
+      <c r="A52" s="3" t="n">
         <v>43983</v>
       </c>
       <c r="B52" t="n">
@@ -1646,7 +1609,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="6" t="n">
+      <c r="A53" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B53" t="n">
@@ -1669,7 +1632,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="n">
+      <c r="A54" s="3" t="n">
         <v>44044</v>
       </c>
       <c r="B54" t="n">
@@ -1692,7 +1655,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="6" t="n">
+      <c r="A55" s="3" t="n">
         <v>44075</v>
       </c>
       <c r="B55" t="n">
@@ -1715,7 +1678,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="6" t="n">
+      <c r="A56" s="3" t="n">
         <v>44105</v>
       </c>
       <c r="B56" t="n">
@@ -1738,7 +1701,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="6" t="n">
+      <c r="A57" s="3" t="n">
         <v>44136</v>
       </c>
       <c r="B57" t="n">
@@ -1761,7 +1724,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="6" t="n">
+      <c r="A58" s="3" t="n">
         <v>44166</v>
       </c>
       <c r="B58" t="n">
@@ -1784,7 +1747,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="6" t="n">
+      <c r="A59" s="3" t="n">
         <v>44197</v>
       </c>
       <c r="B59" t="n">
@@ -1807,7 +1770,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="6" t="n">
+      <c r="A60" s="3" t="n">
         <v>44228</v>
       </c>
       <c r="B60" t="n">
@@ -1830,7 +1793,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="6" t="n">
+      <c r="A61" s="3" t="n">
         <v>44256</v>
       </c>
       <c r="B61" t="n">
@@ -1853,7 +1816,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="6" t="n">
+      <c r="A62" s="3" t="n">
         <v>44287</v>
       </c>
       <c r="B62" t="n">
@@ -1876,7 +1839,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="6" t="n">
+      <c r="A63" s="3" t="n">
         <v>44317</v>
       </c>
       <c r="B63" t="n">
@@ -1899,7 +1862,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="6" t="n">
+      <c r="A64" s="3" t="n">
         <v>44348</v>
       </c>
       <c r="B64" t="n">
@@ -1922,7 +1885,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="6" t="n">
+      <c r="A65" s="3" t="n">
         <v>44378</v>
       </c>
       <c r="B65" t="n">
@@ -1945,7 +1908,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="6" t="n">
+      <c r="A66" s="3" t="n">
         <v>44409</v>
       </c>
       <c r="B66" t="n">
@@ -1968,7 +1931,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="6" t="n">
+      <c r="A67" s="3" t="n">
         <v>44440</v>
       </c>
       <c r="B67" t="n">
@@ -1991,7 +1954,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="6" t="n">
+      <c r="A68" s="3" t="n">
         <v>44470</v>
       </c>
       <c r="B68" t="n">
@@ -2014,7 +1977,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="6" t="n">
+      <c r="A69" s="3" t="n">
         <v>44501</v>
       </c>
       <c r="B69" t="n">
@@ -2037,7 +2000,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="6" t="n">
+      <c r="A70" s="3" t="n">
         <v>44531</v>
       </c>
       <c r="B70" t="n">
@@ -2060,7 +2023,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="6" t="n">
+      <c r="A71" s="3" t="n">
         <v>44562</v>
       </c>
       <c r="B71" t="n">
@@ -2083,7 +2046,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="6" t="n">
+      <c r="A72" s="3" t="n">
         <v>44593</v>
       </c>
       <c r="B72" t="n">
@@ -2106,7 +2069,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="6" t="n">
+      <c r="A73" s="3" t="n">
         <v>44621</v>
       </c>
       <c r="B73" t="n">
@@ -2129,7 +2092,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="6" t="n">
+      <c r="A74" s="3" t="n">
         <v>44652</v>
       </c>
       <c r="B74" t="n">
@@ -2152,7 +2115,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="6" t="n">
+      <c r="A75" s="3" t="n">
         <v>44682</v>
       </c>
       <c r="B75" t="n">
@@ -2175,7 +2138,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="6" t="n">
+      <c r="A76" s="3" t="n">
         <v>44713</v>
       </c>
       <c r="B76" t="n">
@@ -2198,7 +2161,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="6" t="n">
+      <c r="A77" s="3" t="n">
         <v>44743</v>
       </c>
       <c r="B77" t="n">
@@ -2221,7 +2184,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="6" t="n">
+      <c r="A78" s="3" t="n">
         <v>44774</v>
       </c>
       <c r="B78" t="n">
@@ -2244,7 +2207,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="6" t="n">
+      <c r="A79" s="3" t="n">
         <v>44805</v>
       </c>
       <c r="B79" t="n">
@@ -2267,7 +2230,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="6" t="n">
+      <c r="A80" s="3" t="n">
         <v>44835</v>
       </c>
       <c r="B80" t="n">
@@ -2290,7 +2253,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="6" t="n">
+      <c r="A81" s="3" t="n">
         <v>44866</v>
       </c>
       <c r="B81" t="n">
@@ -2313,7 +2276,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="6" t="n">
+      <c r="A82" s="3" t="n">
         <v>44896</v>
       </c>
       <c r="B82" t="n">
@@ -2336,7 +2299,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="6" t="n">
+      <c r="A83" s="3" t="n">
         <v>44927</v>
       </c>
       <c r="B83" t="n">
@@ -2359,7 +2322,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="6" t="n">
+      <c r="A84" s="3" t="n">
         <v>44958</v>
       </c>
       <c r="B84" t="n">
@@ -2382,7 +2345,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="6" t="n">
+      <c r="A85" s="3" t="n">
         <v>44986</v>
       </c>
       <c r="B85" t="n">
@@ -2405,7 +2368,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="6" t="n">
+      <c r="A86" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="B86" t="n">
@@ -2428,7 +2391,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="6" t="n">
+      <c r="A87" s="3" t="n">
         <v>45047</v>
       </c>
       <c r="B87" t="n">
@@ -2451,7 +2414,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="6" t="n">
+      <c r="A88" s="3" t="n">
         <v>45078</v>
       </c>
       <c r="B88" t="n">
@@ -2474,7 +2437,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="6" t="n">
+      <c r="A89" s="3" t="n">
         <v>45108</v>
       </c>
       <c r="B89" t="n">
@@ -2489,9 +2452,15 @@
       <c r="E89" t="n">
         <v>248962.0107</v>
       </c>
+      <c r="F89" t="n">
+        <v>32448.60109358516</v>
+      </c>
+      <c r="G89" t="n">
+        <v>95935.4559965446</v>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" s="6" t="n">
+      <c r="A90" s="3" t="n">
         <v>45139</v>
       </c>
       <c r="B90" t="n">
@@ -2506,9 +2475,15 @@
       <c r="E90" t="n">
         <v>284686.953</v>
       </c>
+      <c r="F90" t="n">
+        <v>37861.6278979834</v>
+      </c>
+      <c r="G90" t="n">
+        <v>77313.25379535164</v>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" s="6" t="n">
+      <c r="A91" s="3" t="n">
         <v>45170</v>
       </c>
       <c r="B91" t="n">
@@ -2523,9 +2498,15 @@
       <c r="E91" t="n">
         <v>319422.0447</v>
       </c>
+      <c r="F91" t="n">
+        <v>42874.52364698592</v>
+      </c>
+      <c r="G91" t="n">
+        <v>86746.36244998997</v>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" s="6" t="n">
+      <c r="A92" s="3" t="n">
         <v>45200</v>
       </c>
       <c r="B92" t="n">
@@ -2540,8 +2521,14 @@
       <c r="E92" t="n">
         <v>345295.449</v>
       </c>
+      <c r="F92" t="n">
+        <v>46562.96008101164</v>
+      </c>
+      <c r="G92" t="n">
+        <v>93772.87719580498</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/scrap_CBT/files/Calculos.xlsx
+++ b/scrap_CBT/files/Calculos.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>

--- a/scrap_CBT/files/Calculos.xlsx
+++ b/scrap_CBT/files/Calculos.xlsx
@@ -15,8 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -406,7 +407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2528,6 +2529,29 @@
         <v>93772.87719580498</v>
       </c>
     </row>
+    <row r="93">
+      <c r="A93" s="3" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B93" t="n">
+        <v>59886.86</v>
+      </c>
+      <c r="C93" t="n">
+        <v>126361.27</v>
+      </c>
+      <c r="D93" t="n">
+        <v>185050.3974</v>
+      </c>
+      <c r="E93" t="n">
+        <v>390456.3243</v>
+      </c>
+      <c r="F93" t="n">
+        <v>53651.04814103901</v>
+      </c>
+      <c r="G93" t="n">
+        <v>106037.345858298</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/scrap_CBT/files/Calculos.xlsx
+++ b/scrap_CBT/files/Calculos.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -15,9 +15,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -2457,7 +2456,7 @@
         <v>32448.60109358516</v>
       </c>
       <c r="G89" t="n">
-        <v>95935.4559965446</v>
+        <v>95935.45599654461</v>
       </c>
     </row>
     <row r="90">
@@ -2480,7 +2479,7 @@
         <v>37861.6278979834</v>
       </c>
       <c r="G90" t="n">
-        <v>77313.25379535164</v>
+        <v>77313.25379535166</v>
       </c>
     </row>
     <row r="91">
@@ -2503,7 +2502,7 @@
         <v>42874.52364698592</v>
       </c>
       <c r="G91" t="n">
-        <v>86746.36244998997</v>
+        <v>86746.36244998999</v>
       </c>
     </row>
     <row r="92">
@@ -2526,7 +2525,7 @@
         <v>46562.96008101164</v>
       </c>
       <c r="G92" t="n">
-        <v>93772.87719580498</v>
+        <v>93772.87719580499</v>
       </c>
     </row>
     <row r="93">

--- a/scrap_CBT/files/Calculos.xlsx
+++ b/scrap_CBT/files/Calculos.xlsx
@@ -2456,7 +2456,7 @@
         <v>32448.60109358516</v>
       </c>
       <c r="G89" t="n">
-        <v>95935.45599654461</v>
+        <v>95935.4559965446</v>
       </c>
     </row>
     <row r="90">
@@ -2479,7 +2479,7 @@
         <v>37861.6278979834</v>
       </c>
       <c r="G90" t="n">
-        <v>77313.25379535166</v>
+        <v>77313.25379535164</v>
       </c>
     </row>
     <row r="91">
@@ -2502,7 +2502,7 @@
         <v>42874.52364698592</v>
       </c>
       <c r="G91" t="n">
-        <v>86746.36244998999</v>
+        <v>86746.36244998997</v>
       </c>
     </row>
     <row r="92">
@@ -2525,7 +2525,7 @@
         <v>46562.96008101164</v>
       </c>
       <c r="G92" t="n">
-        <v>93772.87719580499</v>
+        <v>93772.87719580498</v>
       </c>
     </row>
     <row r="93">

--- a/scrap_CBT/files/Calculos.xlsx
+++ b/scrap_CBT/files/Calculos.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -2456,7 +2456,7 @@
         <v>32448.60109358516</v>
       </c>
       <c r="G89" t="n">
-        <v>95935.4559965446</v>
+        <v>95935.45599654461</v>
       </c>
     </row>
     <row r="90">
@@ -2479,7 +2479,7 @@
         <v>37861.6278979834</v>
       </c>
       <c r="G90" t="n">
-        <v>77313.25379535164</v>
+        <v>77313.25379535166</v>
       </c>
     </row>
     <row r="91">
@@ -2502,7 +2502,7 @@
         <v>42874.52364698592</v>
       </c>
       <c r="G91" t="n">
-        <v>86746.36244998997</v>
+        <v>86746.36244998999</v>
       </c>
     </row>
     <row r="92">
@@ -2525,7 +2525,7 @@
         <v>46562.96008101164</v>
       </c>
       <c r="G92" t="n">
-        <v>93772.87719580498</v>
+        <v>93772.87719580499</v>
       </c>
     </row>
     <row r="93">

--- a/scrap_CBT/files/Calculos.xlsx
+++ b/scrap_CBT/files/Calculos.xlsx
@@ -406,7 +406,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2456,7 +2456,7 @@
         <v>32448.60109358516</v>
       </c>
       <c r="G89" t="n">
-        <v>95935.45599654461</v>
+        <v>95935.4559965446</v>
       </c>
     </row>
     <row r="90">
@@ -2479,7 +2479,7 @@
         <v>37861.6278979834</v>
       </c>
       <c r="G90" t="n">
-        <v>77313.25379535166</v>
+        <v>77313.25379535164</v>
       </c>
     </row>
     <row r="91">
@@ -2502,7 +2502,7 @@
         <v>42874.52364698592</v>
       </c>
       <c r="G91" t="n">
-        <v>86746.36244998999</v>
+        <v>86746.36244998997</v>
       </c>
     </row>
     <row r="92">
@@ -2525,7 +2525,7 @@
         <v>46562.96008101164</v>
       </c>
       <c r="G92" t="n">
-        <v>93772.87719580499</v>
+        <v>93772.87719580498</v>
       </c>
     </row>
     <row r="93">
@@ -2549,6 +2549,29 @@
       </c>
       <c r="G93" t="n">
         <v>106037.345858298</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="3" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B94" t="n">
+        <v>77889.58</v>
+      </c>
+      <c r="C94" t="n">
+        <v>160452.53</v>
+      </c>
+      <c r="D94" t="n">
+        <v>240678.8022</v>
+      </c>
+      <c r="E94" t="n">
+        <v>495798.3177</v>
+      </c>
+      <c r="F94" t="n">
+        <v>69779.20709593572</v>
+      </c>
+      <c r="G94" t="n">
+        <v>134645.3736769893</v>
       </c>
     </row>
   </sheetData>

--- a/scrap_CBT/files/Calculos.xlsx
+++ b/scrap_CBT/files/Calculos.xlsx
@@ -2456,7 +2456,7 @@
         <v>32448.60109358516</v>
       </c>
       <c r="G89" t="n">
-        <v>95935.4559965446</v>
+        <v>95935.45599654461</v>
       </c>
     </row>
     <row r="90">
@@ -2479,7 +2479,7 @@
         <v>37861.6278979834</v>
       </c>
       <c r="G90" t="n">
-        <v>77313.25379535164</v>
+        <v>77313.25379535166</v>
       </c>
     </row>
     <row r="91">
@@ -2502,7 +2502,7 @@
         <v>42874.52364698592</v>
       </c>
       <c r="G91" t="n">
-        <v>86746.36244998997</v>
+        <v>86746.36244998999</v>
       </c>
     </row>
     <row r="92">
@@ -2525,7 +2525,7 @@
         <v>46562.96008101164</v>
       </c>
       <c r="G92" t="n">
-        <v>93772.87719580498</v>
+        <v>93772.87719580499</v>
       </c>
     </row>
     <row r="93">

--- a/scrap_CBT/files/Calculos.xlsx
+++ b/scrap_CBT/files/Calculos.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -406,7 +406,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2452,12 +2452,8 @@
       <c r="E89" t="n">
         <v>248962.0107</v>
       </c>
-      <c r="F89" t="n">
-        <v>32448.60109358516</v>
-      </c>
-      <c r="G89" t="n">
-        <v>95935.4559965446</v>
-      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="3" t="n">
@@ -2475,12 +2471,8 @@
       <c r="E90" t="n">
         <v>284686.953</v>
       </c>
-      <c r="F90" t="n">
-        <v>37861.6278979834</v>
-      </c>
-      <c r="G90" t="n">
-        <v>77313.25379535164</v>
-      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="3" t="n">
@@ -2498,12 +2490,8 @@
       <c r="E91" t="n">
         <v>319422.0447</v>
       </c>
-      <c r="F91" t="n">
-        <v>42874.52364698592</v>
-      </c>
-      <c r="G91" t="n">
-        <v>86746.36244998997</v>
-      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="3" t="n">
@@ -2521,12 +2509,8 @@
       <c r="E92" t="n">
         <v>345295.449</v>
       </c>
-      <c r="F92" t="n">
-        <v>46562.96008101164</v>
-      </c>
-      <c r="G92" t="n">
-        <v>93772.87719580498</v>
-      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="3" t="n">
@@ -2544,12 +2528,8 @@
       <c r="E93" t="n">
         <v>390456.3243</v>
       </c>
-      <c r="F93" t="n">
-        <v>53651.04814103901</v>
-      </c>
-      <c r="G93" t="n">
-        <v>106037.345858298</v>
-      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="3" t="n">
@@ -2567,12 +2547,27 @@
       <c r="E94" t="n">
         <v>495798.3177</v>
       </c>
-      <c r="F94" t="n">
-        <v>69779.20709593572</v>
-      </c>
-      <c r="G94" t="n">
-        <v>134645.3736769893</v>
-      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B95" t="n">
+        <v>92414.67</v>
+      </c>
+      <c r="C95" t="n">
+        <v>193146.66</v>
+      </c>
+      <c r="D95" t="n">
+        <v>285561.3303</v>
+      </c>
+      <c r="E95" t="n">
+        <v>596823.1794</v>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
